--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,71 +467,71 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>746</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3644</t>
+          <t>668</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>129</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,39 +595,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,61 +637,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>5261</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4065</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>970</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>1220</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1461</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7245</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,29 +947,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,39 +979,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>1689</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,61 +1085,61 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1245423662.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2572</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-10 14:52</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1245214481.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1244901074.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1707</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：公司目前在手订单较为充足</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-09 10:17</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1244536246.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1244437398.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>2067</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-08 14:22</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1244232478.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>1482</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1243984851.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>7326</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-07 08:57</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1243515085.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-06 15:24</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1243413741.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1242828268.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材四川新设子公司 注册资本5000万元</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 14:56</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1242635366.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,39 +1427,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计1677.87万元（11-02）</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1242334409.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入21.45万元，融资余额8952.01万元（11-01）</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1241809613.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>1718</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降3.80%，户均持股28.46万元</t>
+          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 09:27</t>
+          <t>11-11 12:09</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1241320906.html</t>
+          <t>/news,300586,1245656555.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入612.19万元，融资余额8930.56万元（10-31）</t>
+          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 08:57</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1241305961.html</t>
+          <t>/news,300586,1245423662.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>2584</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还722.04万元，融资余额8318.37万元（10-28）</t>
+          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-10 14:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1240800268.html</t>
+          <t>/news,300586,1245214481.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入5226.71万元，居塑料制品板块第三</t>
+          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1240714487.html</t>
+          <t>/news,300586,1244901074.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>1711</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入937.51万元，融资余额9040.41万元（10-27）</t>
+          <t>美联新材：公司目前在手订单较为充足</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-28 09:11</t>
+          <t>11-09 10:17</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1240062311.html</t>
+          <t>/news,300586,1244536246.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材：前三季度净利润同比大增</t>
+          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 15:25</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1239848187.html</t>
+          <t>/news,300586,1244437398.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1683.86万元，融资余额8102.89万元（10-26）</t>
+          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>11-08 14:22</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1239507386.html</t>
+          <t>/news,300586,1244232478.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>【图解季报】美联新材：2022年前三季度归母净利润同比翻近15倍，约为2.5亿元</t>
+          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 22:54</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1239458392.html</t>
+          <t>/news,300586,1243984851.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,103 +1747,103 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 22:19</t>
+          <t>11-07 08:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1239450428.html</t>
+          <t>/news,300586,1243515085.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：隔膜产能落地逐步放量 高禀赋拓展钠电享红利</t>
+          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 21:49</t>
+          <t>11-06 15:24</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1239447397.html</t>
+          <t>/news,300586,1243413741.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>美联新材：2022年前三季度净利润同比增长1482%</t>
+          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 18:04</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1239371293.html</t>
+          <t>/news,300586,1242828268.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入2605.34万元，融资余额6419.03万元（10-25）</t>
+          <t>美联新材四川新设子公司 注册资本5000万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 09:01</t>
+          <t>11-03 14:56</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1238980893.html</t>
+          <t>/news,300586,1242635366.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>美联新材：纳入融资融券标的首日，融资买入5000.66万元（10-24）</t>
+          <t>美联新材：连续3日融资净买入累计1677.87万元（11-02）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1238459742.html</t>
+          <t>/news,300586,1242334409.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加34.11%，户均持股30.7万元</t>
+          <t>美联新材：融资净买入21.45万元，融资余额8952.01万元（11-01）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-21 10:29</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1237476759.html</t>
+          <t>/news,300586,1241809613.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材：“美联转债”可能满足赎回条件</t>
+          <t>美联新材股东户数下降3.80%，户均持股28.46万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-20 18:57</t>
+          <t>11-01 09:27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1237244931.html</t>
+          <t>/news,300586,1241320906.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1252</t>
+          <t>310</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材：随着第三、四号线投产 第四季度子公司安徽美芯隔膜产销量将大幅度提升</t>
+          <t>美联新材：融资净买入612.19万元，融资余额8930.56万元（10-31）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-18 14:16</t>
+          <t>11-01 08:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1236282749.html</t>
+          <t>/news,300586,1241305961.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>929</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>美联新材：公司认为未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：融资净偿还722.04万元，融资余额8318.37万元（10-28）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-17 16:28</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1235934776.html</t>
+          <t>/news,300586,1240800268.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>美联新材：接受华安证券股份有限公司等机构调研</t>
+          <t>美联新材本周融资净买入5226.71万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1235915625.html</t>
+          <t>/news,300586,1240714487.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华安证券股份有限公司等多家机构调研</t>
+          <t>美联新材：融资净买入937.51万元，融资余额9040.41万元（10-27）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-17 14:06</t>
+          <t>10-28 09:11</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1235877743.html</t>
+          <t>/news,300586,1240062311.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>960</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯已通过电池厂商产品认证并完成中试订单交付</t>
+          <t>美联新材：前三季度净利润同比大增</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-17 13:31</t>
+          <t>10-27 15:25</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1235843169.html</t>
+          <t>/news,300586,1239848187.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：融资净买入1683.86万元，融资余额8102.89万元（10-26）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 12:08</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1235812774.html</t>
+          <t>/news,300586,1239507386.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>1228</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>【图解季报】美联新材：2022年前三季度归母净利润同比翻近15倍，约为2.5亿元</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-17 12:04</t>
+          <t>10-26 22:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1235812355.html</t>
+          <t>/news,300586,1239458392.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1343</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-17 11:52</t>
+          <t>10-26 22:19</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1235808880.html</t>
+          <t>/news,300586,1239450428.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>896</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>东方财富证券给予美联新材增持评级：钠电正极多线布局 湿法隔膜放量在即</t>
+          <t>华安证券给予美联新材买入评级：隔膜产能落地逐步放量 高禀赋拓展钠电享红利</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,61 +2237,61 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-14 11:49</t>
+          <t>10-26 21:49</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1235256287.html</t>
+          <t>/news,300586,1239447397.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降1.45%，户均持股34.36万元</t>
+          <t>美联新材：2022年前三季度净利润同比增长1482%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-11 09:54</t>
+          <t>10-26 18:04</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1233893299.html</t>
+          <t>/news,300586,1239371293.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级，季节扰动不改向好趋势，隔膜加速放量布局钠电</t>
+          <t>美联新材：融资净买入2605.34万元，融资余额6419.03万元（10-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-11 08:07</t>
+          <t>10-26 09:01</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1233839636.html</t>
+          <t>/news,300586,1238980893.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：纳入融资融券标的首日，融资买入5000.66万元（10-24）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-11 07:57</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1233838077.html</t>
+          <t>/news,300586,1238459742.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>879</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材：预计前三季净利润同比增长1354%-1607%</t>
+          <t>美联新材股东户数增加34.11%，户均持股30.7万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-10 22:57</t>
+          <t>10-21 10:29</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1233802036.html</t>
+          <t>/news,300586,1237476759.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>711</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>美联新材：预计前三季度归母净利润同比增1354%-1607%</t>
+          <t>美联新材：“美联转债”可能满足赎回条件</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-10 20:15</t>
+          <t>10-20 18:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1233759977.html</t>
+          <t>/news,300586,1237244931.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>美联新材前三季度净利润预增1354%-1607%</t>
+          <t>美联新材：随着第三、四号线投产 第四季度子公司安徽美芯隔膜产销量将大幅度提升</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-10 19:31</t>
+          <t>10-18 14:16</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1233746439.html</t>
+          <t>/news,300586,1236282749.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>936</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美联新材：预计2022年前三季度净利润为2.3亿元~2.7亿元 同比增长1354%~1607%</t>
+          <t>美联新材：公司认为未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-10 17:26</t>
+          <t>10-17 16:28</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1233714968.html</t>
+          <t>/news,300586,1235934776.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>美联新材：前三季度净利同比预增1354%-1607%</t>
+          <t>美联新材：接受华安证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-10 17:26</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1233714965.html</t>
+          <t>/news,300586,1235915625.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>美联新材：预计22年前三季度归母净利润同比增长1354.00%至1607.00%</t>
+          <t>【调研快报】美联新材接待华安证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-10 17:22</t>
+          <t>10-17 14:06</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1233713618.html</t>
+          <t>/news,300586,1235877743.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>972</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加5.90%，户均持股34.67万元</t>
+          <t>美联新材：安徽美芯已通过电池厂商产品认证并完成中试订单交付</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-09 10:49</t>
+          <t>10-17 13:31</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1233306980.html</t>
+          <t>/news,300586,1235843169.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待深圳市前海征途投资管理有限公司等多家机构调研</t>
+          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-28 16:57</t>
+          <t>10-17 12:08</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1231963303.html</t>
+          <t>/news,300586,1235812774.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>美联新材：隔膜产品可应用在半固态电池上，另设孙公司从事半固态电池合成材料研发</t>
+          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-28 16:21</t>
+          <t>10-17 12:04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1231950870.html</t>
+          <t>/news,300586,1235812355.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美联新材：目前尚未有电池厂商进入氰化钠领域</t>
+          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-28 16:06</t>
+          <t>10-17 11:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1231947239.html</t>
+          <t>/news,300586,1235808880.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>海通国际发布美联新材研报 色母粒和三聚氯氰龙头企业 拓展新能源业务优势明显</t>
+          <t>东方财富证券给予美联新材增持评级：钠电正极多线布局 湿法隔膜放量在即</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-28 13:14</t>
+          <t>10-14 11:49</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1231839063.html</t>
+          <t>/news,300586,1235256287.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美联新材：黄伟汕累计质押股数为3791万股</t>
+          <t>美联新材股东户数下降1.45%，户均持股34.36万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-27 11:51</t>
+          <t>10-11 09:54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1231403783.html</t>
+          <t>/news,300586,1233893299.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1262</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第三、四条线预计10月份可以全面投产</t>
+          <t>华安证券给予美联新材买入评级，季节扰动不改向好趋势，隔膜加速放量布局钠电</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-22 14:11</t>
+          <t>10-11 08:07</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1230038072.html</t>
+          <t>/news,300586,1233839636.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>信披频频“造势” 钠电池普鲁士蓝正极材料产线已投产 美联新材盘中最高涨逾5%</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-22 09:05</t>
+          <t>10-11 07:57</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1229822908.html</t>
+          <t>/news,300586,1233838077.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>3870</t>
+          <t>883</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材：钠电池普鲁士蓝正极材料50吨中试生产线已投产 并通过部分电池厂商检测</t>
+          <t>美联新材：预计前三季净利润同比增长1354%-1607%</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-21 17:30</t>
+          <t>10-10 22:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1229684417.html</t>
+          <t>/news,300586,1233802036.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待国信证券等多家机构调研</t>
+          <t>美联新材：预计前三季度归母净利润同比增1354%-1607%</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-21 17:05</t>
+          <t>10-10 20:15</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1229690409.html</t>
+          <t>/news,300586,1233759977.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1017</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加8.40%，户均持股40.26万元</t>
+          <t>美联新材前三季度净利润预增1354%-1607%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-21 10:49</t>
+          <t>10-10 19:31</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1229506233.html</t>
+          <t>/news,300586,1233746439.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材：公司目前持有深圳华钠7%股权，与其暂无具体业务往来</t>
+          <t>美联新材：预计2022年前三季度净利润为2.3亿元~2.7亿元 同比增长1354%~1607%</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-20 17:51</t>
+          <t>10-10 17:26</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1229269078.html</t>
+          <t>/news,300586,1233714968.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>美联新材：公司有推进聚乳酸在可降解塑料中应用的计划</t>
+          <t>美联新材：前三季度净利同比预增1354%-1607%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-20 17:36</t>
+          <t>10-10 17:26</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1229266414.html</t>
+          <t>/news,300586,1233714965.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材：公司控股子公司营创三征拥有氢能发电站的相关核心技术</t>
+          <t>美联新材：预计22年前三季度归母净利润同比增长1354.00%至1607.00%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>股友7E3228205x</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-20 17:34</t>
+          <t>10-10 17:22</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1229265487.html</t>
+          <t>/news,300586,1233713618.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材投资成立新公司 经营范围含电池制造</t>
+          <t>美联新材股东户数增加5.90%，户均持股34.67万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-19 15:28</t>
+          <t>10-09 10:49</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1228831850.html</t>
+          <t>/news,300586,1233306980.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>144</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,39 +467,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>1271</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5261</t>
+          <t>856</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,61 +733,61 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>9043</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4123</t>
+          <t>1006</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1246</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,61 +925,61 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>713</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1203</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3709</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1689</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>1699</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,61 +1245,61 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1482</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7326</t>
+          <t>4172</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>2077</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,61 +1405,61 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1494</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>7375</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1718</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1245423662.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-10 14:52</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1245214481.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1244901074.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材：公司目前在手订单较为充足</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-09 10:17</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1244536246.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1719</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
+          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-11 12:09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1244437398.html</t>
+          <t>/news,300586,1245656555.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
+          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-08 14:22</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1244232478.html</t>
+          <t>/news,300586,1245423662.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
+          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-10 14:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1243984851.html</t>
+          <t>/news,300586,1245214481.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
+          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,61 +1757,61 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-07 08:57</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1243515085.html</t>
+          <t>/news,300586,1244901074.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>1714</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
+          <t>美联新材：公司目前在手订单较为充足</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-06 15:24</t>
+          <t>11-09 10:17</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1243413741.html</t>
+          <t>/news,300586,1244536246.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
+          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1242828268.html</t>
+          <t>/news,300586,1244437398.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材四川新设子公司 注册资本5000万元</t>
+          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-03 14:56</t>
+          <t>11-08 14:22</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1242635366.html</t>
+          <t>/news,300586,1244232478.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计1677.87万元（11-02）</t>
+          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1242334409.html</t>
+          <t>/news,300586,1243984851.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入21.45万元，融资余额8952.01万元（11-01）</t>
+          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-07 08:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1241809613.html</t>
+          <t>/news,300586,1243515085.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降3.80%，户均持股28.46万元</t>
+          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-01 09:27</t>
+          <t>11-06 15:24</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1241320906.html</t>
+          <t>/news,300586,1243413741.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入612.19万元，融资余额8930.56万元（10-31）</t>
+          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-01 08:57</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1241305961.html</t>
+          <t>/news,300586,1242828268.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>2033</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还722.04万元，融资余额8318.37万元（10-28）</t>
+          <t>美联新材四川新设子公司 注册资本5000万元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-03 14:56</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1240800268.html</t>
+          <t>/news,300586,1242635366.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入5226.71万元，居塑料制品板块第三</t>
+          <t>美联新材：连续3日融资净买入累计1677.87万元（11-02）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1240714487.html</t>
+          <t>/news,300586,1242334409.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入937.51万元，融资余额9040.41万元（10-27）</t>
+          <t>美联新材：融资净买入21.45万元，融资余额8952.01万元（11-01）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-28 09:11</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1240062311.html</t>
+          <t>/news,300586,1241809613.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材：前三季度净利润同比大增</t>
+          <t>美联新材股东户数下降3.80%，户均持股28.46万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-27 15:25</t>
+          <t>11-01 09:27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1239848187.html</t>
+          <t>/news,300586,1241320906.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1683.86万元，融资余额8102.89万元（10-26）</t>
+          <t>美联新材：融资净买入612.19万元，融资余额8930.56万元（10-31）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>11-01 08:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1239507386.html</t>
+          <t>/news,300586,1241305961.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1228</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>【图解季报】美联新材：2022年前三季度归母净利润同比翻近15倍，约为2.5亿元</t>
+          <t>美联新材：融资净偿还722.04万元，融资余额8318.37万元（10-28）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 22:54</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1239458392.html</t>
+          <t>/news,300586,1240800268.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材本周融资净买入5226.71万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 22:19</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1239450428.html</t>
+          <t>/news,300586,1240714487.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：隔膜产能落地逐步放量 高禀赋拓展钠电享红利</t>
+          <t>美联新材：融资净买入937.51万元，融资余额9040.41万元（10-27）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,51 +2237,51 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 21:49</t>
+          <t>10-28 09:11</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1239447397.html</t>
+          <t>/news,300586,1240062311.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材：2022年前三季度净利润同比增长1482%</t>
+          <t>美联新材：前三季度净利润同比大增</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-26 18:04</t>
+          <t>10-27 15:25</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1239371293.html</t>
+          <t>/news,300586,1239848187.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入2605.34万元，融资余额6419.03万元（10-25）</t>
+          <t>美联新材：融资净买入1683.86万元，融资余额8102.89万元（10-26）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-26 09:01</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1238980893.html</t>
+          <t>/news,300586,1239507386.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>美联新材：纳入融资融券标的首日，融资买入5000.66万元（10-24）</t>
+          <t>【图解季报】美联新材：2022年前三季度归母净利润同比翻近15倍，约为2.5亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,61 +2333,61 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-26 22:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1238459742.html</t>
+          <t>/news,300586,1239458392.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加34.11%，户均持股30.7万元</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-21 10:29</t>
+          <t>10-26 22:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1237476759.html</t>
+          <t>/news,300586,1239450428.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>901</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>美联新材：“美联转债”可能满足赎回条件</t>
+          <t>华安证券给予美联新材买入评级：隔膜产能落地逐步放量 高禀赋拓展钠电享红利</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,61 +2397,61 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-20 18:57</t>
+          <t>10-26 21:49</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1237244931.html</t>
+          <t>/news,300586,1239447397.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>美联新材：随着第三、四号线投产 第四季度子公司安徽美芯隔膜产销量将大幅度提升</t>
+          <t>美联新材：2022年前三季度净利润同比增长1482%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 14:16</t>
+          <t>10-26 18:04</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1236282749.html</t>
+          <t>/news,300586,1239371293.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>936</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美联新材：公司认为未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：融资净买入2605.34万元，融资余额6419.03万元（10-25）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 16:28</t>
+          <t>10-26 09:01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1235934776.html</t>
+          <t>/news,300586,1238980893.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>美联新材：接受华安证券股份有限公司等机构调研</t>
+          <t>美联新材：纳入融资融券标的首日，融资买入5000.66万元（10-24）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1235915625.html</t>
+          <t>/news,300586,1238459742.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华安证券股份有限公司等多家机构调研</t>
+          <t>美联新材股东户数增加34.11%，户均持股30.7万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 14:06</t>
+          <t>10-21 10:29</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1235877743.html</t>
+          <t>/news,300586,1237476759.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>972</t>
+          <t>715</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯已通过电池厂商产品认证并完成中试订单交付</t>
+          <t>美联新材：“美联转债”可能满足赎回条件</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-17 13:31</t>
+          <t>10-20 18:57</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1235843169.html</t>
+          <t>/news,300586,1237244931.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：随着第三、四号线投产 第四季度子公司安徽美芯隔膜产销量将大幅度提升</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-17 12:08</t>
+          <t>10-18 14:16</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1235812774.html</t>
+          <t>/news,300586,1236282749.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>940</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：公司认为未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 12:04</t>
+          <t>10-17 16:28</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1235812355.html</t>
+          <t>/news,300586,1235934776.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：接受华安证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 11:52</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1235808880.html</t>
+          <t>/news,300586,1235915625.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>东方财富证券给予美联新材增持评级：钠电正极多线布局 湿法隔膜放量在即</t>
+          <t>【调研快报】美联新材接待华安证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 11:49</t>
+          <t>10-17 14:06</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1235256287.html</t>
+          <t>/news,300586,1235877743.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>975</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降1.45%，户均持股34.36万元</t>
+          <t>美联新材：安徽美芯已通过电池厂商产品认证并完成中试订单交付</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-11 09:54</t>
+          <t>10-17 13:31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1233893299.html</t>
+          <t>/news,300586,1235843169.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级，季节扰动不改向好趋势，隔膜加速放量布局钠电</t>
+          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-11 08:07</t>
+          <t>10-17 12:08</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1233839636.html</t>
+          <t>/news,300586,1235812774.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,39 +2771,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-11 07:57</t>
+          <t>10-17 12:04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1233838077.html</t>
+          <t>/news,300586,1235812355.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材：预计前三季净利润同比增长1354%-1607%</t>
+          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-10 22:57</t>
+          <t>10-17 11:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1233802036.html</t>
+          <t>/news,300586,1235808880.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>美联新材：预计前三季度归母净利润同比增1354%-1607%</t>
+          <t>东方财富证券给予美联新材增持评级：钠电正极多线布局 湿法隔膜放量在即</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-10 20:15</t>
+          <t>10-14 11:49</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1233759977.html</t>
+          <t>/news,300586,1235256287.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材前三季度净利润预增1354%-1607%</t>
+          <t>美联新材股东户数下降1.45%，户均持股34.36万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-10 19:31</t>
+          <t>10-11 09:54</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1233746439.html</t>
+          <t>/news,300586,1233893299.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材：预计2022年前三季度净利润为2.3亿元~2.7亿元 同比增长1354%~1607%</t>
+          <t>华安证券给予美联新材买入评级，季节扰动不改向好趋势，隔膜加速放量布局钠电</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 17:26</t>
+          <t>10-11 08:07</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1233714968.html</t>
+          <t>/news,300586,1233839636.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>美联新材：前三季度净利同比预增1354%-1607%</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 17:26</t>
+          <t>10-11 07:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1233714965.html</t>
+          <t>/news,300586,1233838077.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材：预计22年前三季度归母净利润同比增长1354.00%至1607.00%</t>
+          <t>美联新材：预计前三季净利润同比增长1354%-1607%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>股友7E3228205x</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-10 17:22</t>
+          <t>10-10 22:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1233713618.html</t>
+          <t>/news,300586,1233802036.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>1099</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加5.90%，户均持股34.67万元</t>
+          <t>美联新材：预计前三季度归母净利润同比增1354%-1607%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 10:49</t>
+          <t>10-10 20:15</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1233306980.html</t>
+          <t>/news,300586,1233759977.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1470</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1145</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,71 +627,71 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>1284</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,51 +733,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>9043</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>9298</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1246</t>
+          <t>1023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4170</t>
+          <t>1721</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,29 +1107,29 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3731</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>3737</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1699</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,93 +1245,93 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>1712</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4172</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>649</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2077</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>2081</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7375</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>7442</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1719</t>
+          <t>543</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1725</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
+          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-11 12:09</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1245423662.html</t>
+          <t>/news,300586,1245656555.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
+          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-10 14:52</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1245214481.html</t>
+          <t>/news,300586,1245423662.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>2593</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
+          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-10 14:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1244901074.html</t>
+          <t>/news,300586,1245214481.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1714</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材：公司目前在手订单较为充足</t>
+          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-09 10:17</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1244536246.html</t>
+          <t>/news,300586,1244901074.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
+          <t>美联新材：公司目前在手订单较为充足</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-09 10:17</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1244437398.html</t>
+          <t>/news,300586,1244536246.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
+          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-08 14:22</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1244232478.html</t>
+          <t>/news,300586,1244437398.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
+          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-08 14:22</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1243984851.html</t>
+          <t>/news,300586,1244232478.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
+          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-07 08:57</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1243515085.html</t>
+          <t>/news,300586,1243984851.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,71 +1939,71 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
+          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-06 15:24</t>
+          <t>11-07 08:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1243413741.html</t>
+          <t>/news,300586,1243515085.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
+          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-06 15:24</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1242828268.html</t>
+          <t>/news,300586,1243413741.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2033</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>美联新材四川新设子公司 注册资本5000万元</t>
+          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-03 14:56</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1242635366.html</t>
+          <t>/news,300586,1242828268.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>2034</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计1677.87万元（11-02）</t>
+          <t>美联新材四川新设子公司 注册资本5000万元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-03 14:56</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1242334409.html</t>
+          <t>/news,300586,1242635366.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入21.45万元，融资余额8952.01万元（11-01）</t>
+          <t>美联新材：连续3日融资净买入累计1677.87万元（11-02）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1241809613.html</t>
+          <t>/news,300586,1242334409.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降3.80%，户均持股28.46万元</t>
+          <t>美联新材：融资净买入21.45万元，融资余额8952.01万元（11-01）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-01 09:27</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1241320906.html</t>
+          <t>/news,300586,1241809613.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入612.19万元，融资余额8930.56万元（10-31）</t>
+          <t>美联新材股东户数下降3.80%，户均持股28.46万元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 08:57</t>
+          <t>11-01 09:27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1241305961.html</t>
+          <t>/news,300586,1241320906.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还722.04万元，融资余额8318.37万元（10-28）</t>
+          <t>美联新材：融资净买入612.19万元，融资余额8930.56万元（10-31）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,51 +2173,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 08:57</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1240800268.html</t>
+          <t>/news,300586,1241305961.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入5226.71万元，居塑料制品板块第三</t>
+          <t>美联新材：融资净偿还722.04万元，融资余额8318.37万元（10-28）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1240714487.html</t>
+          <t>/news,300586,1240800268.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入937.51万元，融资余额9040.41万元（10-27）</t>
+          <t>美联新材本周融资净买入5226.71万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-28 09:11</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1240062311.html</t>
+          <t>/news,300586,1240714487.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材：前三季度净利润同比大增</t>
+          <t>美联新材：融资净买入937.51万元，融资余额9040.41万元（10-27）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-27 15:25</t>
+          <t>10-28 09:11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1239848187.html</t>
+          <t>/news,300586,1240062311.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1683.86万元，融资余额8102.89万元（10-26）</t>
+          <t>美联新材：前三季度净利润同比大增</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-27 15:25</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1239507386.html</t>
+          <t>/news,300586,1239848187.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>【图解季报】美联新材：2022年前三季度归母净利润同比翻近15倍，约为2.5亿元</t>
+          <t>美联新材：融资净买入1683.86万元，融资余额8102.89万元（10-26）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,147 +2333,147 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-26 22:54</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1239458392.html</t>
+          <t>/news,300586,1239507386.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>【图解季报】美联新材：2022年前三季度归母净利润同比翻近15倍，约为2.5亿元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 22:19</t>
+          <t>10-26 22:54</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1239450428.html</t>
+          <t>/news,300586,1239458392.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>901</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：隔膜产能落地逐步放量 高禀赋拓展钠电享红利</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 21:49</t>
+          <t>10-26 22:19</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1239447397.html</t>
+          <t>/news,300586,1239450428.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>905</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>美联新材：2022年前三季度净利润同比增长1482%</t>
+          <t>华安证券给予美联新材买入评级：隔膜产能落地逐步放量 高禀赋拓展钠电享红利</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 18:04</t>
+          <t>10-26 21:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1239371293.html</t>
+          <t>/news,300586,1239447397.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入2605.34万元，融资余额6419.03万元（10-25）</t>
+          <t>美联新材：2022年前三季度净利润同比增长1482%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 09:01</t>
+          <t>10-26 18:04</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1238980893.html</t>
+          <t>/news,300586,1239371293.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>美联新材：纳入融资融券标的首日，融资买入5000.66万元（10-24）</t>
+          <t>美联新材：融资净买入2605.34万元，融资余额6419.03万元（10-25）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-26 09:01</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1238459742.html</t>
+          <t>/news,300586,1238980893.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加34.11%，户均持股30.7万元</t>
+          <t>美联新材：纳入融资融券标的首日，融资买入5000.66万元（10-24）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-21 10:29</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1237476759.html</t>
+          <t>/news,300586,1238459742.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美联新材：“美联转债”可能满足赎回条件</t>
+          <t>美联新材股东户数增加34.11%，户均持股30.7万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 18:57</t>
+          <t>10-21 10:29</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1237244931.html</t>
+          <t>/news,300586,1237476759.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1261</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>美联新材：随着第三、四号线投产 第四季度子公司安徽美芯隔膜产销量将大幅度提升</t>
+          <t>美联新材：“美联转债”可能满足赎回条件</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 14:16</t>
+          <t>10-20 18:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1236282749.html</t>
+          <t>/news,300586,1237244931.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>美联新材：公司认为未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：随着第三、四号线投产 第四季度子公司安徽美芯隔膜产销量将大幅度提升</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 16:28</t>
+          <t>10-18 14:16</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1235934776.html</t>
+          <t>/news,300586,1236282749.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>941</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美联新材：接受华安证券股份有限公司等机构调研</t>
+          <t>美联新材：公司认为未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-17 16:28</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1235915625.html</t>
+          <t>/news,300586,1235934776.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华安证券股份有限公司等多家机构调研</t>
+          <t>美联新材：接受华安证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 14:06</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1235877743.html</t>
+          <t>/news,300586,1235915625.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯已通过电池厂商产品认证并完成中试订单交付</t>
+          <t>【调研快报】美联新材接待华安证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-17 13:31</t>
+          <t>10-17 14:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1235843169.html</t>
+          <t>/news,300586,1235877743.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>980</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：安徽美芯已通过电池厂商产品认证并完成中试订单交付</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,24 +2749,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 12:08</t>
+          <t>10-17 13:31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1235812774.html</t>
+          <t>/news,300586,1235843169.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2781,24 +2781,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 12:04</t>
+          <t>10-17 12:08</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1235812355.html</t>
+          <t>/news,300586,1235812774.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 11:52</t>
+          <t>10-17 12:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1235808880.html</t>
+          <t>/news,300586,1235812355.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>东方财富证券给予美联新材增持评级：钠电正极多线布局 湿法隔膜放量在即</t>
+          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-14 11:49</t>
+          <t>10-17 11:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1235256287.html</t>
+          <t>/news,300586,1235808880.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降1.45%，户均持股34.36万元</t>
+          <t>东方财富证券给予美联新材增持评级：钠电正极多线布局 湿法隔膜放量在即</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-11 09:54</t>
+          <t>10-14 11:49</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1233893299.html</t>
+          <t>/news,300586,1235256287.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级，季节扰动不改向好趋势，隔膜加速放量布局钠电</t>
+          <t>美联新材股东户数下降1.45%，户均持股34.36万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,93 +2909,93 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 08:07</t>
+          <t>10-11 09:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1233839636.html</t>
+          <t>/news,300586,1233893299.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>1137</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>华安证券给予美联新材买入评级，季节扰动不改向好趋势，隔膜加速放量布局钠电</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-11 07:57</t>
+          <t>10-11 08:07</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1233838077.html</t>
+          <t>/news,300586,1233839636.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材：预计前三季净利润同比增长1354%-1607%</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-10 22:57</t>
+          <t>10-11 07:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1233802036.html</t>
+          <t>/news,300586,1233838077.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>887</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材：预计前三季度归母净利润同比增1354%-1607%</t>
+          <t>美联新材：预计前三季净利润同比增长1354%-1607%</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 20:15</t>
+          <t>10-10 22:57</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1233759977.html</t>
+          <t>/news,300586,1233802036.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>519</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
+          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-24 08:58</t>
+          <t>11-25 12:26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1250431083.html</t>
+          <t>/news,300586,1251144560.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>139</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1250951061.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1470</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>2057</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,61 +637,61 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>1433</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,61 +701,61 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1284</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>922</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,61 +765,61 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>1376</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>9298</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>9332</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1258</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>1267</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,24 +1021,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1721</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1053,24 +1053,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4183</t>
+          <t>1238</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>1729</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,44 +1117,44 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3737</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>3747</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4269</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>649</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,39 +1363,39 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>4337</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2081</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7442</t>
+          <t>2088</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,61 +1501,61 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>7482</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,51 +1661,51 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1725</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1245423662.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2593</t>
+          <t>1728</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
+          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-10 14:52</t>
+          <t>11-11 12:09</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1245214481.html</t>
+          <t>/news,300586,1245656555.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
+          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1244901074.html</t>
+          <t>/news,300586,1245423662.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>2601</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>美联新材：公司目前在手订单较为充足</t>
+          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-09 10:17</t>
+          <t>11-10 14:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1244536246.html</t>
+          <t>/news,300586,1245214481.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
+          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1244437398.html</t>
+          <t>/news,300586,1244901074.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1717</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
+          <t>美联新材：公司目前在手订单较为充足</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-08 14:22</t>
+          <t>11-09 10:17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1244232478.html</t>
+          <t>/news,300586,1244536246.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
+          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1243984851.html</t>
+          <t>/news,300586,1244437398.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
+          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-07 08:57</t>
+          <t>11-08 14:22</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1243515085.html</t>
+          <t>/news,300586,1244232478.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
+          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-06 15:24</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1243413741.html</t>
+          <t>/news,300586,1243984851.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
+          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-07 08:57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1242828268.html</t>
+          <t>/news,300586,1243515085.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2034</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>美联新材四川新设子公司 注册资本5000万元</t>
+          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-03 14:56</t>
+          <t>11-06 15:24</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1242635366.html</t>
+          <t>/news,300586,1243413741.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计1677.87万元（11-02）</t>
+          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1242334409.html</t>
+          <t>/news,300586,1242828268.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>2035</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入21.45万元，融资余额8952.01万元（11-01）</t>
+          <t>美联新材四川新设子公司 注册资本5000万元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-03 14:56</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1241809613.html</t>
+          <t>/news,300586,1242635366.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降3.80%，户均持股28.46万元</t>
+          <t>美联新材：连续3日融资净买入累计1677.87万元（11-02）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-01 09:27</t>
+          <t>11-03 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1241320906.html</t>
+          <t>/news,300586,1242334409.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入612.19万元，融资余额8930.56万元（10-31）</t>
+          <t>美联新材：融资净买入21.45万元，融资余额8952.01万元（11-01）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-01 08:57</t>
+          <t>11-02 08:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1241305961.html</t>
+          <t>/news,300586,1241809613.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>388</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还722.04万元，融资余额8318.37万元（10-28）</t>
+          <t>美联新材股东户数下降3.80%，户均持股28.46万元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-01 09:27</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1240800268.html</t>
+          <t>/news,300586,1241320906.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入5226.71万元，居塑料制品板块第三</t>
+          <t>美联新材：融资净买入612.19万元，融资余额8930.56万元（10-31）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-01 08:57</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1240714487.html</t>
+          <t>/news,300586,1241305961.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入937.51万元，融资余额9040.41万元（10-27）</t>
+          <t>美联新材：融资净偿还722.04万元，融资余额8318.37万元（10-28）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,61 +2269,61 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-28 09:11</t>
+          <t>10-31 09:08</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1240062311.html</t>
+          <t>/news,300586,1240800268.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>美联新材：前三季度净利润同比大增</t>
+          <t>美联新材本周融资净买入5226.71万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-27 15:25</t>
+          <t>10-30 15:15</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1239848187.html</t>
+          <t>/news,300586,1240714487.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1683.86万元，融资余额8102.89万元（10-26）</t>
+          <t>美联新材：融资净买入937.51万元，融资余额9040.41万元（10-27）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>10-28 09:11</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1239507386.html</t>
+          <t>/news,300586,1240062311.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>【图解季报】美联新材：2022年前三季度归母净利润同比翻近15倍，约为2.5亿元</t>
+          <t>美联新材：前三季度净利润同比大增</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-26 22:54</t>
+          <t>10-27 15:25</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1239458392.html</t>
+          <t>/news,300586,1239848187.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：融资净买入1683.86万元，融资余额8102.89万元（10-26）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-26 22:19</t>
+          <t>10-27 08:58</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1239450428.html</t>
+          <t>/news,300586,1239507386.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>905</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：隔膜产能落地逐步放量 高禀赋拓展钠电享红利</t>
+          <t>【图解季报】美联新材：2022年前三季度归母净利润同比翻近15倍，约为2.5亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 21:49</t>
+          <t>10-26 22:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1239447397.html</t>
+          <t>/news,300586,1239458392.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美联新材：2022年前三季度净利润同比增长1482%</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 18:04</t>
+          <t>10-26 22:19</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1239371293.html</t>
+          <t>/news,300586,1239450428.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>910</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入2605.34万元，融资余额6419.03万元（10-25）</t>
+          <t>华安证券给予美联新材买入评级：隔膜产能落地逐步放量 高禀赋拓展钠电享红利</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 09:01</t>
+          <t>10-26 21:49</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1238980893.html</t>
+          <t>/news,300586,1239447397.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>美联新材：纳入融资融券标的首日，融资买入5000.66万元（10-24）</t>
+          <t>美联新材：2022年前三季度净利润同比增长1482%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-26 18:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1238459742.html</t>
+          <t>/news,300586,1239371293.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>779</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加34.11%，户均持股30.7万元</t>
+          <t>美联新材：融资净买入2605.34万元，融资余额6419.03万元（10-25）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-21 10:29</t>
+          <t>10-26 09:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1237476759.html</t>
+          <t>/news,300586,1238980893.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>美联新材：“美联转债”可能满足赎回条件</t>
+          <t>美联新材：纳入融资融券标的首日，融资买入5000.66万元（10-24）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-20 18:57</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1237244931.html</t>
+          <t>/news,300586,1238459742.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>美联新材：随着第三、四号线投产 第四季度子公司安徽美芯隔膜产销量将大幅度提升</t>
+          <t>美联新材股东户数增加34.11%，户均持股30.7万元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-18 14:16</t>
+          <t>10-21 10:29</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1236282749.html</t>
+          <t>/news,300586,1237476759.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美联新材：公司认为未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：“美联转债”可能满足赎回条件</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 16:28</t>
+          <t>10-20 18:57</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1235934776.html</t>
+          <t>/news,300586,1237244931.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>1268</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>美联新材：接受华安证券股份有限公司等机构调研</t>
+          <t>美联新材：随着第三、四号线投产 第四季度子公司安徽美芯隔膜产销量将大幅度提升</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>10-18 14:16</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1235915625.html</t>
+          <t>/news,300586,1236282749.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华安证券股份有限公司等多家机构调研</t>
+          <t>美联新材：公司认为未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-17 14:06</t>
+          <t>10-17 16:28</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1235877743.html</t>
+          <t>/news,300586,1235934776.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>639</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯已通过电池厂商产品认证并完成中试订单交付</t>
+          <t>美联新材：接受华安证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 13:31</t>
+          <t>10-17 15:14</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1235843169.html</t>
+          <t>/news,300586,1235915625.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>【调研快报】美联新材接待华安证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 12:08</t>
+          <t>10-17 14:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1235812774.html</t>
+          <t>/news,300586,1235877743.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>982</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：安徽美芯已通过电池厂商产品认证并完成中试订单交付</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,24 +2813,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 12:04</t>
+          <t>10-17 13:31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1235812355.html</t>
+          <t>/news,300586,1235843169.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 11:52</t>
+          <t>10-17 12:08</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1235808880.html</t>
+          <t>/news,300586,1235812774.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东方财富证券给予美联新材增持评级：钠电正极多线布局 湿法隔膜放量在即</t>
+          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-14 11:49</t>
+          <t>10-17 12:04</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1235256287.html</t>
+          <t>/news,300586,1235812355.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降1.45%，户均持股34.36万元</t>
+          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 09:54</t>
+          <t>10-17 11:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1233893299.html</t>
+          <t>/news,300586,1235808880.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1137</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级，季节扰动不改向好趋势，隔膜加速放量布局钠电</t>
+          <t>东方财富证券给予美联新材增持评级：钠电正极多线布局 湿法隔膜放量在即</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-11 08:07</t>
+          <t>10-14 11:49</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1233839636.html</t>
+          <t>/news,300586,1235256287.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>432</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材股东户数下降1.45%，户均持股34.36万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 07:57</t>
+          <t>10-11 09:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1233838077.html</t>
+          <t>/news,300586,1233893299.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材：预计前三季净利润同比增长1354%-1607%</t>
+          <t>华安证券给予美联新材买入评级，季节扰动不改向好趋势，隔膜加速放量布局钠电</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-10 22:57</t>
+          <t>10-11 08:07</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1233802036.html</t>
+          <t>/news,300586,1233839636.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
+          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-25 12:26</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1251144560.html</t>
+          <t>/news,300586,1254803334.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
+          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1250951061.html</t>
+          <t>/news,300586,1254651310.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
+          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-24 08:58</t>
+          <t>12-02 08:52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1250431083.html</t>
+          <t>/news,300586,1253921265.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1253726421.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：公司没有生产NC膜</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1253726136.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>891</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>12-01 14:47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1253730277.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1433</t>
+          <t>1058</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>12-01 11:35</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1253537964.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,61 +701,61 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>12-01 11:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1253515038.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>3854</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>12-01 11:10</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1253513278.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>1305</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>12-01 11:09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1253510125.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>12-01 10:12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1253425119.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1253309933.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-30 23:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1253555550.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>5212</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-30 20:38</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1253219296.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9332</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>美联新材：接受上海松熙私募等机构调研</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-30 19:03</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1253189430.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-30 15:23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1253116699.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-30 13:33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1253018745.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1267</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-30 13:27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1253013307.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-30 12:09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1252978101.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-30 08:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1252787247.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1252221686.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4193</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-28 08:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1251735594.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-27 23:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1251683324.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-27 15:40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1251597864.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,39 +1235,39 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1251591044.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-26 10:44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1251447060.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>2310</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-26 10:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1251445904.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>1489</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,61 +1341,61 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-25 13:37</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1251183386.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-25 12:26</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1251144560.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4337</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1250951061.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2088</t>
+          <t>2410</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7482</t>
+          <t>1651</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>530</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,39 +1619,39 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>988</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1533</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>2103</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,51 +1725,51 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1728</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1245423662.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>9415</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-10 14:52</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1245214481.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>2081</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1244901074.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>1062</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>美联新材：公司目前在手订单较为充足</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-09 10:17</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1244536246.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1244437398.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-08 14:22</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1244232478.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1243984851.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>1759</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-07 08:57</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1243515085.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>4227</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-06 15:24</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1243413741.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1242828268.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材四川新设子公司 注册资本5000万元</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-03 14:56</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1242635366.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计1677.87万元（11-02）</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-03 08:52</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1242334409.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入21.45万元，融资余额8952.01万元（11-01）</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-02 08:52</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1241809613.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降3.80%，户均持股28.46万元</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-01 09:27</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1241320906.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>1755</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入612.19万元，融资余额8930.56万元（10-31）</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-01 08:57</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1241305961.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,71 +2259,71 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还722.04万元，融资余额8318.37万元（10-28）</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-31 09:08</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1240800268.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>4423</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入5226.71万元，居塑料制品板块第三</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-30 15:15</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1240714487.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入937.51万元，融资余额9040.41万元（10-27）</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-28 09:11</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1240062311.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材：前三季度净利润同比大增</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-27 15:25</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1239848187.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1683.86万元，融资余额8102.89万元（10-26）</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-27 08:58</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1239507386.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>1534</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>【图解季报】美联新材：2022年前三季度归母净利润同比翻近15倍，约为2.5亿元</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,115 +2429,115 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-26 22:54</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1239458392.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>7622</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-26 22:19</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1239450428.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>910</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：隔膜产能落地逐步放量 高禀赋拓展钠电享红利</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-26 21:49</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1239447397.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>美联新材：2022年前三季度净利润同比增长1482%</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-26 18:04</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1239371293.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入2605.34万元，融资余额6419.03万元（10-25）</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-26 09:01</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1238980893.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,39 +2579,39 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>美联新材：纳入融资融券标的首日，融资买入5000.66万元（10-24）</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1238459742.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>783</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加34.11%，户均持股30.7万元</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-21 10:29</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1237476759.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>1755</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美联新材：“美联转债”可能满足赎回条件</t>
+          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-20 18:57</t>
+          <t>11-11 12:09</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1237244931.html</t>
+          <t>/news,300586,1245656555.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1268</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>美联新材：随着第三、四号线投产 第四季度子公司安徽美芯隔膜产销量将大幅度提升</t>
+          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 14:16</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1236282749.html</t>
+          <t>/news,300586,1245423662.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美联新材：公司认为未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-17 16:28</t>
+          <t>11-10 14:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1235934776.html</t>
+          <t>/news,300586,1245214481.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>美联新材：接受华安证券股份有限公司等机构调研</t>
+          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 15:14</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1235915625.html</t>
+          <t>/news,300586,1244901074.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>1734</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华安证券股份有限公司等多家机构调研</t>
+          <t>美联新材：公司目前在手订单较为充足</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 14:06</t>
+          <t>11-09 10:17</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1235877743.html</t>
+          <t>/news,300586,1244536246.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>982</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯已通过电池厂商产品认证并完成中试订单交付</t>
+          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 13:31</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1235843169.html</t>
+          <t>/news,300586,1244437398.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-17 12:08</t>
+          <t>11-08 14:22</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1235812774.html</t>
+          <t>/news,300586,1244232478.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 12:04</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1235812355.html</t>
+          <t>/news,300586,1243984851.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材：未来至少五年内不会出现隔膜产能过剩问题</t>
+          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 11:52</t>
+          <t>11-07 08:57</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1235808880.html</t>
+          <t>/news,300586,1243515085.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>东方财富证券给予美联新材增持评级：钠电正极多线布局 湿法隔膜放量在即</t>
+          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 11:49</t>
+          <t>11-06 15:24</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1235256287.html</t>
+          <t>/news,300586,1243413741.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降1.45%，户均持股34.36万元</t>
+          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-11 09:54</t>
+          <t>11-04 08:59</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1233893299.html</t>
+          <t>/news,300586,1242828268.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>2055</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级，季节扰动不改向好趋势，隔膜加速放量布局钠电</t>
+          <t>美联新材四川新设子公司 注册资本5000万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-11 08:07</t>
+          <t>11-03 14:56</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1233839636.html</t>
+          <t>/news,300586,1242635366.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
+          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 10:22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1254803334.html</t>
+          <t>/news,300586,1255583288.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>141</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
+          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-06 08:53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1254651310.html</t>
+          <t>/news,300586,1255457956.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
+          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,61 +541,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-02 08:52</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1253921265.html</t>
+          <t>/news,300586,1254803334.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
+          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1253726421.html</t>
+          <t>/news,300586,1254651310.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1107</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材：公司没有生产NC膜</t>
+          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-02 08:52</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1253726136.html</t>
+          <t>/news,300586,1253921265.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>891</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
+          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-01 14:47</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1253730277.html</t>
+          <t>/news,300586,1253726421.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1058</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
+          <t>美联新材：公司没有生产NC膜</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-01 11:35</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1253537964.html</t>
+          <t>/news,300586,1253726136.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>949</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-01 11:13</t>
+          <t>12-01 14:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1253515038.html</t>
+          <t>/news,300586,1253730277.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3854</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 11:10</t>
+          <t>12-01 11:35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1253513278.html</t>
+          <t>/news,300586,1253537964.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1305</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 11:09</t>
+          <t>12-01 11:13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1253510125.html</t>
+          <t>/news,300586,1253515038.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 10:12</t>
+          <t>12-01 11:10</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1253425119.html</t>
+          <t>/news,300586,1253513278.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
+          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 11:09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1253309933.html</t>
+          <t>/news,300586,1253510125.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
+          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-30 23:04</t>
+          <t>12-01 10:12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1253555550.html</t>
+          <t>/news,300586,1253425119.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5212</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
+          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-30 20:38</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1253219296.html</t>
+          <t>/news,300586,1253309933.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美联新材：接受上海松熙私募等机构调研</t>
+          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 19:03</t>
+          <t>11-30 23:04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1253189430.html</t>
+          <t>/news,300586,1253555550.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>5241</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 15:23</t>
+          <t>11-30 20:38</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1253116699.html</t>
+          <t>/news,300586,1253219296.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
+          <t>美联新材：接受上海松熙私募等机构调研</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 13:33</t>
+          <t>11-30 19:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1253018745.html</t>
+          <t>/news,300586,1253189430.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>705</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
+          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 13:27</t>
+          <t>11-30 15:23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1253013307.html</t>
+          <t>/news,300586,1253116699.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 12:09</t>
+          <t>11-30 13:33</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1252978101.html</t>
+          <t>/news,300586,1253018745.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
+          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 08:53</t>
+          <t>11-30 13:27</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1252787247.html</t>
+          <t>/news,300586,1253013307.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
+          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 12:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1252221686.html</t>
+          <t>/news,300586,1252978101.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
+          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-28 08:53</t>
+          <t>11-30 08:53</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1251735594.html</t>
+          <t>/news,300586,1252787247.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
+          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-27 23:59</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1251683324.html</t>
+          <t>/news,300586,1252221686.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,56 +1213,56 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-27 15:40</t>
+          <t>11-28 08:53</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1251597864.html</t>
+          <t>/news,300586,1251735594.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
+          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-27 23:59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1251591044.html</t>
+          <t>/news,300586,1251683324.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2028</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-26 10:44</t>
+          <t>11-27 15:40</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1251447060.html</t>
+          <t>/news,300586,1251597864.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-26 10:27</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1251445904.html</t>
+          <t>/news,300586,1251591044.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>2538</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-25 13:37</t>
+          <t>11-26 10:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1251183386.html</t>
+          <t>/news,300586,1251447060.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>2326</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-25 12:26</t>
+          <t>11-26 10:27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1251144560.html</t>
+          <t>/news,300586,1251445904.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>1497</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
+          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-25 13:37</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1250951061.html</t>
+          <t>/news,300586,1251183386.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
+          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-24 08:58</t>
+          <t>11-25 12:26</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1250431083.html</t>
+          <t>/news,300586,1251144560.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1250951061.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2096</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>2415</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,61 +1661,61 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1533</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2103</t>
+          <t>990</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,61 +1725,61 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9415</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2081</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1062</t>
+          <t>9419</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>2087</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>1296</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,24 +1981,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>749</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2013,24 +2013,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4227</t>
+          <t>1276</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1760</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3788</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>1758</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2107</t>
+          <t>662</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7622</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>7630</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,29 +2579,29 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1755</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1245423662.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
+          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-10 14:52</t>
+          <t>11-11 12:09</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1245214481.html</t>
+          <t>/news,300586,1245656555.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
+          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1244901074.html</t>
+          <t>/news,300586,1245423662.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>美联新材：公司目前在手订单较为充足</t>
+          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-09 10:17</t>
+          <t>11-10 14:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1244536246.html</t>
+          <t>/news,300586,1245214481.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
+          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1244437398.html</t>
+          <t>/news,300586,1244901074.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1735</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
+          <t>美联新材：公司目前在手订单较为充足</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-08 14:22</t>
+          <t>11-09 10:17</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1244232478.html</t>
+          <t>/news,300586,1244536246.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
+          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-09 08:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1243984851.html</t>
+          <t>/news,300586,1244437398.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
+          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-07 08:57</t>
+          <t>11-08 14:22</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1243515085.html</t>
+          <t>/news,300586,1244232478.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
+          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-06 15:24</t>
+          <t>11-08 08:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1243413741.html</t>
+          <t>/news,300586,1243984851.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1841.7万元（11-03）</t>
+          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-04 08:59</t>
+          <t>11-07 08:57</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1242828268.html</t>
+          <t>/news,300586,1243515085.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2055</t>
+          <t>399</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材四川新设子公司 注册资本5000万元</t>
+          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-03 14:56</t>
+          <t>11-06 15:24</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1242635366.html</t>
+          <t>/news,300586,1243413741.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,17 +457,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>822</t>
+          <t>130</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
+          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-06 10:22</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1255583288.html</t>
+          <t>/news,300586,1256102025.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>2525</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
+          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 08:53</t>
+          <t>12-06 16:09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1255457956.html</t>
+          <t>/news,300586,1255873326.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
+          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,61 +541,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 15:42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1254803334.html</t>
+          <t>/news,300586,1255867277.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>598</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
+          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-06 15:30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1254651310.html</t>
+          <t>/news,300586,1255867127.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
+          <t>美联新材：接受华鑫证券等机构调研</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-02 08:52</t>
+          <t>12-06 15:16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1253921265.html</t>
+          <t>/news,300586,1255858079.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3406</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
+          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-06 10:22</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1253726421.html</t>
+          <t>/news,300586,1255583288.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美联新材：公司没有生产NC膜</t>
+          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-06 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1253726136.html</t>
+          <t>/news,300586,1255457956.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
+          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,61 +701,61 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-01 14:47</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1253730277.html</t>
+          <t>/news,300586,1254803334.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
+          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-01 11:35</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1253537964.html</t>
+          <t>/news,300586,1254651310.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-01 11:13</t>
+          <t>12-02 08:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1253515038.html</t>
+          <t>/news,300586,1253921265.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3891</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 11:10</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1253513278.html</t>
+          <t>/news,300586,1253726421.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
+          <t>美联新材：公司没有生产NC膜</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 11:09</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1253510125.html</t>
+          <t>/news,300586,1253726136.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>974</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
+          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 10:12</t>
+          <t>12-01 14:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1253425119.html</t>
+          <t>/news,300586,1253730277.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
+          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 11:35</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1253309933.html</t>
+          <t>/news,300586,1253537964.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-30 23:04</t>
+          <t>12-01 11:13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1253555550.html</t>
+          <t>/news,300586,1253515038.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5241</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-30 20:38</t>
+          <t>12-01 11:10</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1253219296.html</t>
+          <t>/news,300586,1253513278.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材：接受上海松熙私募等机构调研</t>
+          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-30 19:03</t>
+          <t>12-01 11:09</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1253189430.html</t>
+          <t>/news,300586,1253510125.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-30 15:23</t>
+          <t>12-01 10:12</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1253116699.html</t>
+          <t>/news,300586,1253425119.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
+          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-30 13:33</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1253018745.html</t>
+          <t>/news,300586,1253309933.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
+          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 13:27</t>
+          <t>11-30 23:04</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1253013307.html</t>
+          <t>/news,300586,1253555550.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>5258</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 12:09</t>
+          <t>11-30 20:38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1252978101.html</t>
+          <t>/news,300586,1253219296.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1792</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
+          <t>美联新材：接受上海松熙私募等机构调研</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 08:53</t>
+          <t>11-30 19:03</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1252787247.html</t>
+          <t>/news,300586,1253189430.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>710</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
+          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 15:23</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1252221686.html</t>
+          <t>/news,300586,1253116699.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>575</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
+          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-28 08:53</t>
+          <t>11-30 13:33</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1251735594.html</t>
+          <t>/news,300586,1253018745.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
+          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-27 23:59</t>
+          <t>11-30 13:27</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1251683324.html</t>
+          <t>/news,300586,1253013307.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2028</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-27 15:40</t>
+          <t>11-30 12:09</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1251597864.html</t>
+          <t>/news,300586,1252978101.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,39 +1299,39 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
+          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-30 08:53</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1251591044.html</t>
+          <t>/news,300586,1252787247.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-26 10:44</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1251447060.html</t>
+          <t>/news,300586,1252221686.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2326</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-26 10:27</t>
+          <t>11-28 08:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1251445904.html</t>
+          <t>/news,300586,1251735594.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1932</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
+          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-25 13:37</t>
+          <t>11-27 23:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1251183386.html</t>
+          <t>/news,300586,1251683324.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>2037</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-25 12:26</t>
+          <t>11-27 15:40</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1251144560.html</t>
+          <t>/news,300586,1251597864.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
+          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1250951061.html</t>
+          <t>/news,300586,1251591044.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-24 08:58</t>
+          <t>11-26 10:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1250431083.html</t>
+          <t>/news,300586,1251447060.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>11-26 10:27</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1251445904.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2415</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>11-25 13:37</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1251183386.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>11-25 12:26</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1251144560.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1250951061.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,39 +1683,39 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>2423</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2107</t>
+          <t>1661</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,29 +1811,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,39 +1843,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9419</t>
+          <t>993</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2087</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1296</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>9422</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4229</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>749</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3789</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
@@ -2323,39 +2323,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>3801</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,61 +2461,61 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7630</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,61 +2621,61 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>7641</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1245423662.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2642</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-10 14:52</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1245214481.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1244901074.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>美联新材：公司目前在手订单较为充足</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-09 10:17</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1244536246.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还784.41万元，融资余额1.02亿元（11-08）</t>
+          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-09 08:53</t>
+          <t>11-11 12:09</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1244437398.html</t>
+          <t>/news,300586,1245656555.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材：广东本轮疫情对公司生产经营影响较小且可控</t>
+          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-08 14:22</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1244232478.html</t>
+          <t>/news,300586,1245423662.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入973.09万元，融资余额1.1亿元（11-07）</t>
+          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-08 08:57</t>
+          <t>11-10 14:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1243984851.html</t>
+          <t>/news,300586,1245214481.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还134.27万元，融资余额1亿元（11-04）</t>
+          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-07 08:57</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1243515085.html</t>
+          <t>/news,300586,1244901074.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>1735</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1841.7万元，居塑料制品板块第五</t>
+          <t>美联新材：公司目前在手订单较为充足</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-06 15:24</t>
+          <t>11-09 10:17</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1243413741.html</t>
+          <t>/news,300586,1244536246.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
+          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1256102025.html</t>
+          <t>/news,300586,1256765892.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2525</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
+          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-06 16:09</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1255873326.html</t>
+          <t>/news,300586,1256102025.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2116</t>
+          <t>2737</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
+          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 15:42</t>
+          <t>12-06 16:09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1255867277.html</t>
+          <t>/news,300586,1255873326.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>2324</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 15:30</t>
+          <t>12-06 15:42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1255867127.html</t>
+          <t>/news,300586,1255867277.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>672</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材：接受华鑫证券等机构调研</t>
+          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 15:16</t>
+          <t>12-06 15:30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1255858079.html</t>
+          <t>/news,300586,1255867127.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
+          <t>美联新材：接受华鑫证券等机构调研</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 10:22</t>
+          <t>12-06 15:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1255583288.html</t>
+          <t>/news,300586,1255858079.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>1524</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
+          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 08:53</t>
+          <t>12-06 10:22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1255457956.html</t>
+          <t>/news,300586,1255583288.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
+          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 08:53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1254803334.html</t>
+          <t>/news,300586,1255457956.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
+          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1254651310.html</t>
+          <t>/news,300586,1254803334.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,39 +755,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
+          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-02 08:52</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1253921265.html</t>
+          <t>/news,300586,1254651310.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3501</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
+          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-02 08:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1253726421.html</t>
+          <t>/news,300586,1253921265.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>3525</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材：公司没有生产NC膜</t>
+          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -834,14 +834,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1253726136.html</t>
+          <t>/news,300586,1253726421.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>974</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
+          <t>美联新材：公司没有生产NC膜</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 14:47</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1253730277.html</t>
+          <t>/news,300586,1253726136.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>984</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
+          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 11:35</t>
+          <t>12-01 14:47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1253537964.html</t>
+          <t>/news,300586,1253730277.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,24 +925,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 11:13</t>
+          <t>12-01 11:35</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1253515038.html</t>
+          <t>/news,300586,1253537964.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 11:10</t>
+          <t>12-01 11:13</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1253513278.html</t>
+          <t>/news,300586,1253515038.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1370</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 11:09</t>
+          <t>12-01 11:10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1253510125.html</t>
+          <t>/news,300586,1253513278.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
+          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 10:12</t>
+          <t>12-01 11:09</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1253425119.html</t>
+          <t>/news,300586,1253510125.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
+          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 10:12</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1253309933.html</t>
+          <t>/news,300586,1253425119.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>163</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
+          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-30 23:04</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1253555550.html</t>
+          <t>/news,300586,1253309933.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
+          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 20:38</t>
+          <t>11-30 23:04</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1253219296.html</t>
+          <t>/news,300586,1253555550.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1792</t>
+          <t>5273</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：接受上海松熙私募等机构调研</t>
+          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 19:03</t>
+          <t>11-30 20:38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1253189430.html</t>
+          <t>/news,300586,1253219296.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：接受上海松熙私募等机构调研</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 15:23</t>
+          <t>11-30 19:03</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1253116699.html</t>
+          <t>/news,300586,1253189430.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
+          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 13:33</t>
+          <t>11-30 15:23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1253018745.html</t>
+          <t>/news,300586,1253116699.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
+          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 13:27</t>
+          <t>11-30 13:33</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1253013307.html</t>
+          <t>/news,300586,1253018745.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 12:09</t>
+          <t>11-30 13:27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1252978101.html</t>
+          <t>/news,300586,1253013307.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
+          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 08:53</t>
+          <t>11-30 12:09</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1252787247.html</t>
+          <t>/news,300586,1252978101.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
+          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 08:53</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1252221686.html</t>
+          <t>/news,300586,1252787247.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
+          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-28 08:53</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1251735594.html</t>
+          <t>/news,300586,1252221686.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
+          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-27 23:59</t>
+          <t>11-28 08:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1251683324.html</t>
+          <t>/news,300586,1251735594.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2037</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,88 +1437,88 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 15:40</t>
+          <t>11-27 23:59</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1251597864.html</t>
+          <t>/news,300586,1251683324.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-27 15:40</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1251591044.html</t>
+          <t>/news,300586,1251597864.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-26 10:44</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1251447060.html</t>
+          <t>/news,300586,1251591044.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-26 10:27</t>
+          <t>11-26 10:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1251445904.html</t>
+          <t>/news,300586,1251447060.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-25 13:37</t>
+          <t>11-26 10:27</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1251183386.html</t>
+          <t>/news,300586,1251445904.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>1499</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
+          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 12:26</t>
+          <t>11-25 13:37</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1251144560.html</t>
+          <t>/news,300586,1251183386.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
+          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-25 12:26</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1250951061.html</t>
+          <t>/news,300586,1251144560.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
+          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-24 08:58</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1250431083.html</t>
+          <t>/news,300586,1250951061.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2423</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>2431</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,19 +1821,19 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>534</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1843,71 +1843,71 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>993</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>994</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,51 +1949,51 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>9422</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2094</t>
+          <t>9423</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>2098</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1277</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4229</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2323,29 +2323,29 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3801</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,93 +2461,93 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1766</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4429</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>7641</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,51 +2685,51 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>7651</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,29 +2739,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,29 +2803,29 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>1763</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
+          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-11 12:09</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1245423662.html</t>
+          <t>/news,300586,1245656555.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
+          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-10 14:52</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1245214481.html</t>
+          <t>/news,300586,1245423662.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
+          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-10 14:52</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1244901074.html</t>
+          <t>/news,300586,1245214481.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>261</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材：公司目前在手订单较为充足</t>
+          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-09 10:17</t>
+          <t>11-10 08:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1244536246.html</t>
+          <t>/news,300586,1244901074.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
+          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-09 09:12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1256765892.html</t>
+          <t>/news,300586,1257408265.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
+          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1256102025.html</t>
+          <t>/news,300586,1256765892.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
+          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-06 16:09</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1255873326.html</t>
+          <t>/news,300586,1256102025.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2324</t>
+          <t>2869</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
+          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 15:42</t>
+          <t>12-06 16:09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1255867277.html</t>
+          <t>/news,300586,1255873326.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>2488</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 15:30</t>
+          <t>12-06 15:42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1255867127.html</t>
+          <t>/news,300586,1255867277.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>706</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美联新材：接受华鑫证券等机构调研</t>
+          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 15:16</t>
+          <t>12-06 15:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1255858079.html</t>
+          <t>/news,300586,1255867127.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
+          <t>美联新材：接受华鑫证券等机构调研</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 10:22</t>
+          <t>12-06 15:16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1255583288.html</t>
+          <t>/news,300586,1255858079.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
+          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 08:53</t>
+          <t>12-06 10:22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1255457956.html</t>
+          <t>/news,300586,1255583288.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
+          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 08:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1254803334.html</t>
+          <t>/news,300586,1255457956.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
+          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1254651310.html</t>
+          <t>/news,300586,1254803334.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
+          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-02 08:52</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1253921265.html</t>
+          <t>/news,300586,1254651310.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3525</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
+          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-02 08:52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1253726421.html</t>
+          <t>/news,300586,1253921265.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>3553</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美联新材：公司没有生产NC膜</t>
+          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -866,14 +866,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1253726136.html</t>
+          <t>/news,300586,1253726421.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>984</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
+          <t>美联新材：公司没有生产NC膜</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 14:47</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1253730277.html</t>
+          <t>/news,300586,1253726136.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>992</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
+          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 11:35</t>
+          <t>12-01 14:47</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1253537964.html</t>
+          <t>/news,300586,1253730277.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1291</t>
+          <t>1112</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,24 +957,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 11:13</t>
+          <t>12-01 11:35</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1253515038.html</t>
+          <t>/news,300586,1253537964.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>1304</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 11:10</t>
+          <t>12-01 11:13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1253513278.html</t>
+          <t>/news,300586,1253515038.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 11:09</t>
+          <t>12-01 11:10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1253510125.html</t>
+          <t>/news,300586,1253513278.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>1382</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
+          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 10:12</t>
+          <t>12-01 11:09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1253425119.html</t>
+          <t>/news,300586,1253510125.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
+          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 10:12</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1253309933.html</t>
+          <t>/news,300586,1253425119.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>167</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
+          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-30 23:04</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1253555550.html</t>
+          <t>/news,300586,1253309933.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5273</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
+          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 20:38</t>
+          <t>11-30 23:04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1253219296.html</t>
+          <t>/news,300586,1253555550.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>5282</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：接受上海松熙私募等机构调研</t>
+          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 19:03</t>
+          <t>11-30 20:38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1253189430.html</t>
+          <t>/news,300586,1253219296.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>1799</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：接受上海松熙私募等机构调研</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 15:23</t>
+          <t>11-30 19:03</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1253116699.html</t>
+          <t>/news,300586,1253189430.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
+          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 13:33</t>
+          <t>11-30 15:23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1253018745.html</t>
+          <t>/news,300586,1253116699.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
+          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 13:27</t>
+          <t>11-30 13:33</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1253013307.html</t>
+          <t>/news,300586,1253018745.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 12:09</t>
+          <t>11-30 13:27</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1252978101.html</t>
+          <t>/news,300586,1253013307.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
+          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 08:53</t>
+          <t>11-30 12:09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1252787247.html</t>
+          <t>/news,300586,1252978101.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
+          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 08:53</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1252221686.html</t>
+          <t>/news,300586,1252787247.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
+          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-28 08:53</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1251735594.html</t>
+          <t>/news,300586,1252221686.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
+          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-27 23:59</t>
+          <t>11-28 08:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1251683324.html</t>
+          <t>/news,300586,1251735594.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2043</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,88 +1469,88 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 15:40</t>
+          <t>11-27 23:59</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1251597864.html</t>
+          <t>/news,300586,1251683324.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>2047</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-27 15:40</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1251591044.html</t>
+          <t>/news,300586,1251597864.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-26 10:44</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1251447060.html</t>
+          <t>/news,300586,1251591044.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>2541</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-26 10:27</t>
+          <t>11-26 10:44</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1251445904.html</t>
+          <t>/news,300586,1251447060.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>2332</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-25 13:37</t>
+          <t>11-26 10:27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1251183386.html</t>
+          <t>/news,300586,1251445904.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>1503</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
+          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 12:26</t>
+          <t>11-25 13:37</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1251144560.html</t>
+          <t>/news,300586,1251183386.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>2102</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
+          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-25 12:26</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1250951061.html</t>
+          <t>/news,300586,1251144560.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
+          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-24 08:58</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1250431083.html</t>
+          <t>/news,300586,1250951061.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>2436</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>1674</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,71 +1875,71 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>996</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2112</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9423</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2098</t>
+          <t>9424</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>1278</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4231</t>
+          <t>1762</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>4231</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,29 +2355,29 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3807</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>3810</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1766</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,93 +2493,93 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>1768</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4433</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>4437</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7651</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,51 +2717,51 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>7658</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,29 +2771,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
+          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-11 12:09</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1245423662.html</t>
+          <t>/news,300586,1245656555.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
+          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-10 14:52</t>
+          <t>11-11 08:47</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1245214481.html</t>
+          <t>/news,300586,1245423662.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>2645</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还69.18万元，融资余额1.01亿元（11-09）</t>
+          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-10 08:55</t>
+          <t>11-10 14:52</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1244901074.html</t>
+          <t>/news,300586,1245214481.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
+          <t>美联新材：融资净偿还741.63万元，融资余额2.33亿元（12-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-09 09:12</t>
+          <t>12-12 09:03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1257408265.html</t>
+          <t>/news,300586,1258216220.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>308</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
+          <t>美联新材本周融资净买入3787.59万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1256765892.html</t>
+          <t>/news,300586,1258090552.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
+          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-09 09:12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1256102025.html</t>
+          <t>/news,300586,1257408265.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2869</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
+          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-06 16:09</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1255873326.html</t>
+          <t>/news,300586,1256765892.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
+          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-06 15:42</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1255867277.html</t>
+          <t>/news,300586,1256102025.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>3077</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 15:30</t>
+          <t>12-06 16:09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1255867127.html</t>
+          <t>/news,300586,1255873326.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>2582</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美联新材：接受华鑫证券等机构调研</t>
+          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 15:16</t>
+          <t>12-06 15:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1255858079.html</t>
+          <t>/news,300586,1255867277.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
+          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 10:22</t>
+          <t>12-06 15:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1255583288.html</t>
+          <t>/news,300586,1255867127.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
+          <t>美联新材：接受华鑫证券等机构调研</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 08:53</t>
+          <t>12-06 15:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1255457956.html</t>
+          <t>/news,300586,1255858079.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>1679</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
+          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 10:22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1254803334.html</t>
+          <t>/news,300586,1255583288.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,29 +787,29 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
+          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-06 08:53</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1254651310.html</t>
+          <t>/news,300586,1255457956.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
+          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,61 +829,61 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-02 08:52</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1253921265.html</t>
+          <t>/news,300586,1254803334.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3553</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
+          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1253726421.html</t>
+          <t>/news,300586,1254651310.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1164</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材：公司没有生产NC膜</t>
+          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-02 08:52</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1253726136.html</t>
+          <t>/news,300586,1253921265.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
+          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 14:47</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1253730277.html</t>
+          <t>/news,300586,1253726421.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1112</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
+          <t>美联新材：公司没有生产NC膜</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 11:35</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1253537964.html</t>
+          <t>/news,300586,1253726136.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1304</t>
+          <t>999</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 11:13</t>
+          <t>12-01 14:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1253515038.html</t>
+          <t>/news,300586,1253730277.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3918</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 11:10</t>
+          <t>12-01 11:35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1253513278.html</t>
+          <t>/news,300586,1253537964.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>1322</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 11:09</t>
+          <t>12-01 11:13</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1253510125.html</t>
+          <t>/news,300586,1253515038.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 10:12</t>
+          <t>12-01 11:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1253425119.html</t>
+          <t>/news,300586,1253513278.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>1401</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
+          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 11:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1253309933.html</t>
+          <t>/news,300586,1253510125.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
+          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-30 23:04</t>
+          <t>12-01 10:12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1253555550.html</t>
+          <t>/news,300586,1253425119.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5282</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
+          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-30 20:38</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1253219296.html</t>
+          <t>/news,300586,1253309933.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1799</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：接受上海松熙私募等机构调研</t>
+          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 19:03</t>
+          <t>11-30 23:04</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1253189430.html</t>
+          <t>/news,300586,1253555550.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>5296</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 15:23</t>
+          <t>11-30 20:38</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1253116699.html</t>
+          <t>/news,300586,1253219296.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
+          <t>美联新材：接受上海松熙私募等机构调研</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 13:33</t>
+          <t>11-30 19:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1253018745.html</t>
+          <t>/news,300586,1253189430.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>730</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
+          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 13:27</t>
+          <t>11-30 15:23</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1253013307.html</t>
+          <t>/news,300586,1253116699.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>580</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 12:09</t>
+          <t>11-30 13:33</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1252978101.html</t>
+          <t>/news,300586,1253018745.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
+          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 08:53</t>
+          <t>11-30 13:27</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1252787247.html</t>
+          <t>/news,300586,1253013307.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
+          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 12:09</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1252221686.html</t>
+          <t>/news,300586,1252978101.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
+          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-28 08:53</t>
+          <t>11-30 08:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1251735594.html</t>
+          <t>/news,300586,1252787247.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
+          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-27 23:59</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1251683324.html</t>
+          <t>/news,300586,1252221686.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2047</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,56 +1501,56 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-27 15:40</t>
+          <t>11-28 08:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1251597864.html</t>
+          <t>/news,300586,1251735594.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>1964</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
+          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-27 23:59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1251591044.html</t>
+          <t>/news,300586,1251683324.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2541</t>
+          <t>2057</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1565,61 +1565,61 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-26 10:44</t>
+          <t>11-27 15:40</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1251447060.html</t>
+          <t>/news,300586,1251597864.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2332</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-26 10:27</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1251445904.html</t>
+          <t>/news,300586,1251591044.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-25 13:37</t>
+          <t>11-26 10:44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1251183386.html</t>
+          <t>/news,300586,1251447060.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2102</t>
+          <t>2334</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-25 12:26</t>
+          <t>11-26 10:27</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1251144560.html</t>
+          <t>/news,300586,1251445904.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
+          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-25 13:37</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1250951061.html</t>
+          <t>/news,300586,1251183386.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
+          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-24 08:58</t>
+          <t>11-25 12:26</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1250431083.html</t>
+          <t>/news,300586,1251144560.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1250951061.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1674</t>
+          <t>2453</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>996</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,61 +1949,61 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2116</t>
+          <t>997</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9424</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>9427</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>2113</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,24 +2269,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1762</t>
+          <t>752</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2301,24 +2301,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4231</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,51 +2365,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>4233</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,51 +2429,51 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3810</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>1772</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,39 +2611,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7658</t>
+          <t>2117</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,61 +2749,61 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>1552</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>7669</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,29 +2835,29 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,51 +2909,51 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入215.34万元，融资余额1.04亿元（11-10）</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-11 08:47</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1245423662.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材：安徽美芯第二季度主要是进行产品打样送检 因此当期营收较少 目前公司隔膜订单较为充足</t>
+          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-10 14:52</t>
+          <t>11-11 12:09</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1245214481.html</t>
+          <t>/news,300586,1245656555.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还741.63万元，融资余额2.33亿元（12-09）</t>
+          <t>美联新材：融资净买入75.64万元，融资余额2.34亿元（12-12）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,83 +477,83 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-12 09:03</t>
+          <t>12-13 08:56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1258216220.html</t>
+          <t>/news,300586,1258770287.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3787.59万元，居塑料制品板块第三</t>
+          <t>美联新材：融资净偿还741.63万元，融资余额2.33亿元（12-09）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-12 09:03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1258090552.html</t>
+          <t>/news,300586,1258216220.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
+          <t>美联新材本周融资净买入3787.59万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-09 09:12</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1257408265.html</t>
+          <t>/news,300586,1258090552.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
+          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-09 09:12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1256765892.html</t>
+          <t>/news,300586,1257408265.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
+          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1256102025.html</t>
+          <t>/news,300586,1256765892.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3077</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
+          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-06 16:09</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1255873326.html</t>
+          <t>/news,300586,1256102025.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>3126</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
+          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 15:42</t>
+          <t>12-06 16:09</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1255867277.html</t>
+          <t>/news,300586,1255873326.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>754</t>
+          <t>2608</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 15:30</t>
+          <t>12-06 15:42</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1255867127.html</t>
+          <t>/news,300586,1255867277.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材：接受华鑫证券等机构调研</t>
+          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 15:16</t>
+          <t>12-06 15:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1255858079.html</t>
+          <t>/news,300586,1255867127.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
+          <t>美联新材：接受华鑫证券等机构调研</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-06 10:22</t>
+          <t>12-06 15:16</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1255583288.html</t>
+          <t>/news,300586,1255858079.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
+          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 08:53</t>
+          <t>12-06 10:22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1255457956.html</t>
+          <t>/news,300586,1255583288.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
+          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 08:53</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1254803334.html</t>
+          <t>/news,300586,1255457956.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
+          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1254651310.html</t>
+          <t>/news,300586,1254803334.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
+          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-02 08:52</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1253921265.html</t>
+          <t>/news,300586,1254651310.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
+          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-02 08:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1253726421.html</t>
+          <t>/news,300586,1253921265.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：公司没有生产NC膜</t>
+          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -962,14 +962,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1253726136.html</t>
+          <t>/news,300586,1253726421.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>999</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
+          <t>美联新材：公司没有生产NC膜</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 14:47</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1253730277.html</t>
+          <t>/news,300586,1253726136.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1001</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
+          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 11:35</t>
+          <t>12-01 14:47</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1253537964.html</t>
+          <t>/news,300586,1253730277.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,24 +1053,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 11:13</t>
+          <t>12-01 11:35</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1253515038.html</t>
+          <t>/news,300586,1253537964.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 11:10</t>
+          <t>12-01 11:13</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1253513278.html</t>
+          <t>/news,300586,1253515038.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 11:09</t>
+          <t>12-01 11:10</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1253510125.html</t>
+          <t>/news,300586,1253513278.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
+          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 10:12</t>
+          <t>12-01 11:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1253425119.html</t>
+          <t>/news,300586,1253510125.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
+          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 10:12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1253309933.html</t>
+          <t>/news,300586,1253425119.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
+          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-30 23:04</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1253555550.html</t>
+          <t>/news,300586,1253309933.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5296</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
+          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 20:38</t>
+          <t>11-30 23:04</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1253219296.html</t>
+          <t>/news,300586,1253555550.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>5299</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美联新材：接受上海松熙私募等机构调研</t>
+          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 19:03</t>
+          <t>11-30 20:38</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1253189430.html</t>
+          <t>/news,300586,1253219296.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：接受上海松熙私募等机构调研</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 15:23</t>
+          <t>11-30 19:03</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1253116699.html</t>
+          <t>/news,300586,1253189430.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
+          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 13:33</t>
+          <t>11-30 15:23</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1253018745.html</t>
+          <t>/news,300586,1253116699.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
+          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 13:27</t>
+          <t>11-30 13:33</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1253013307.html</t>
+          <t>/news,300586,1253018745.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1126</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-30 12:09</t>
+          <t>11-30 13:27</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1252978101.html</t>
+          <t>/news,300586,1253013307.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
+          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-30 08:53</t>
+          <t>11-30 12:09</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1252787247.html</t>
+          <t>/news,300586,1252978101.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
+          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 08:53</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1252221686.html</t>
+          <t>/news,300586,1252787247.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
+          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-28 08:53</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1251735594.html</t>
+          <t>/news,300586,1252221686.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1964</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材(300586)：大手笔投资新能源及高分子材料 色母粒、锂电隔膜产能稳步扩张</t>
+          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-27 23:59</t>
+          <t>11-28 08:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1251683324.html</t>
+          <t>/news,300586,1251735594.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1641,7 +1641,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2334</t>
+          <t>2335</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1673,7 +1673,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1507</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1705,7 +1705,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2109</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1769,7 +1769,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2453</t>
+          <t>2457</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1897,7 +1897,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2025,7 +2025,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2153,7 +2153,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9427</t>
+          <t>9429</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2185,7 +2185,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>2118</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2281,7 +2281,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>755</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3815</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2569,7 +2569,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1772</t>
+          <t>1773</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2633,7 +2633,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4450</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2761,7 +2761,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1552</t>
+          <t>1553</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7669</t>
+          <t>7671</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2985,7 +2985,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1771</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入75.64万元，融资余额2.34亿元（12-12）</t>
+          <t>美联新材：融资净偿还406.85万元，融资余额2.3亿元（12-13）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-13 08:56</t>
+          <t>12-14 09:10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1258770287.html</t>
+          <t>/news,300586,1259359354.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还741.63万元，融资余额2.33亿元（12-09）</t>
+          <t>美联新材：融资净买入75.64万元，融资余额2.34亿元（12-12）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,83 +509,83 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-12 09:03</t>
+          <t>12-13 08:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1258216220.html</t>
+          <t>/news,300586,1258770287.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3787.59万元，居塑料制品板块第三</t>
+          <t>美联新材：融资净偿还741.63万元，融资余额2.33亿元（12-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-12 09:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1258090552.html</t>
+          <t>/news,300586,1258216220.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
+          <t>美联新材本周融资净买入3787.59万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-09 09:12</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1257408265.html</t>
+          <t>/news,300586,1258090552.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
+          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-09 09:12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1256765892.html</t>
+          <t>/news,300586,1257408265.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
+          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1256102025.html</t>
+          <t>/news,300586,1256765892.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
+          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-06 16:09</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1255873326.html</t>
+          <t>/news,300586,1256102025.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
+          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 15:42</t>
+          <t>12-06 16:09</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1255867277.html</t>
+          <t>/news,300586,1255873326.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>2633</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 15:30</t>
+          <t>12-06 15:42</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1255867127.html</t>
+          <t>/news,300586,1255867277.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材：接受华鑫证券等机构调研</t>
+          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-06 15:16</t>
+          <t>12-06 15:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1255858079.html</t>
+          <t>/news,300586,1255867127.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
+          <t>美联新材：接受华鑫证券等机构调研</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 10:22</t>
+          <t>12-06 15:16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1255583288.html</t>
+          <t>/news,300586,1255858079.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>1811</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
+          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 08:53</t>
+          <t>12-06 10:22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1255457956.html</t>
+          <t>/news,300586,1255583288.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
+          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 08:53</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1254803334.html</t>
+          <t>/news,300586,1255457956.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,29 +883,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
+          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1254651310.html</t>
+          <t>/news,300586,1254803334.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,39 +915,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
+          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-02 08:52</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1253921265.html</t>
+          <t>/news,300586,1254651310.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
+          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-02 08:52</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1253726421.html</t>
+          <t>/news,300586,1253921265.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材：公司没有生产NC膜</t>
+          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -994,14 +994,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1253726136.html</t>
+          <t>/news,300586,1253726421.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1001</t>
+          <t>1182</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
+          <t>美联新材：公司没有生产NC膜</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 14:47</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1253730277.html</t>
+          <t>/news,300586,1253726136.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1005</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
+          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 11:35</t>
+          <t>12-01 14:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1253537964.html</t>
+          <t>/news,300586,1253730277.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,24 +1085,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 11:13</t>
+          <t>12-01 11:35</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1253515038.html</t>
+          <t>/news,300586,1253537964.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3928</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 11:10</t>
+          <t>12-01 11:13</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1253513278.html</t>
+          <t>/news,300586,1253515038.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 11:09</t>
+          <t>12-01 11:10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1253510125.html</t>
+          <t>/news,300586,1253513278.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
+          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 10:12</t>
+          <t>12-01 11:09</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1253425119.html</t>
+          <t>/news,300586,1253510125.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
+          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 10:12</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1253309933.html</t>
+          <t>/news,300586,1253425119.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
+          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-30 23:04</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1253555550.html</t>
+          <t>/news,300586,1253309933.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5299</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
+          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 20:38</t>
+          <t>11-30 23:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1253219296.html</t>
+          <t>/news,300586,1253555550.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>5300</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材：接受上海松熙私募等机构调研</t>
+          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 19:03</t>
+          <t>11-30 20:38</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1253189430.html</t>
+          <t>/news,300586,1253219296.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：接受上海松熙私募等机构调研</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 15:23</t>
+          <t>11-30 19:03</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1253116699.html</t>
+          <t>/news,300586,1253189430.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
+          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 13:33</t>
+          <t>11-30 15:23</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1253018745.html</t>
+          <t>/news,300586,1253116699.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1126</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
+          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-30 13:27</t>
+          <t>11-30 13:33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1253013307.html</t>
+          <t>/news,300586,1253018745.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-30 12:09</t>
+          <t>11-30 13:27</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1252978101.html</t>
+          <t>/news,300586,1253013307.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1602</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
+          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-30 08:53</t>
+          <t>11-30 12:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1252787247.html</t>
+          <t>/news,300586,1252978101.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
+          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 08:53</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1252221686.html</t>
+          <t>/news,300586,1252787247.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
+          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-28 08:53</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1251735594.html</t>
+          <t>/news,300586,1252221686.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,88 +1565,88 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-27 15:40</t>
+          <t>11-28 08:53</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1251597864.html</t>
+          <t>/news,300586,1251735594.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>2062</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-27 15:40</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1251591044.html</t>
+          <t>/news,300586,1251597864.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-26 10:44</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1251447060.html</t>
+          <t>/news,300586,1251591044.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2335</t>
+          <t>2544</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-26 10:27</t>
+          <t>11-26 10:44</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1251445904.html</t>
+          <t>/news,300586,1251447060.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1507</t>
+          <t>2335</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-25 13:37</t>
+          <t>11-26 10:27</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1251183386.html</t>
+          <t>/news,300586,1251445904.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
+          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-25 12:26</t>
+          <t>11-25 13:37</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1251144560.html</t>
+          <t>/news,300586,1251183386.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>2111</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
+          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-25 12:26</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1250951061.html</t>
+          <t>/news,300586,1251144560.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
+          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-24 08:58</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1250431083.html</t>
+          <t>/news,300586,1250951061.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2114</t>
+          <t>2461</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>2247</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>537</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,71 +1971,71 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>997</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2121</t>
+          <t>1548</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9429</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2118</t>
+          <t>9429</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>755</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4233</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,29 +2451,29 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1248770579.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-18 08:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1248164422.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>3824</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-17 18:08</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1248045103.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1773</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,93 +2589,93 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-17 08:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1247677209.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>1773</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-17 07:08</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1247662037.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4455</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-17 07:03</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1247661489.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>4455</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-16 18:19</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1247550672.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>664</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>注意！美联新材将于12月2日召开股东大会</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-16 18:10</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1247543908.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2117</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-16 08:49</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1247183647.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1553</t>
+          <t>2117</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-15 17:23</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1247060390.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>7671</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-15 16:25</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1247046255.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>7673</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>美联新材(300586)龙虎榜数据(11-15)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-15 16:24</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1247046016.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,29 +2867,29 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材放量涨停 两机构买入5117万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>一句话龙虎榜</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-15 16:23</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1247045715.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-15 08:53</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1246699020.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,29 +2931,29 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-14 08:52</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1246196948.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,39 +2963,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-13 15:11</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1246100975.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1771</t>
+          <t>562</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材：公司的主营产品包括色母粒、三聚氯氰、电池湿法隔膜和熔喷无纺布</t>
+          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-11 12:09</t>
+          <t>11-11 14:03</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1245656555.html</t>
+          <t>/news,300586,1245742176.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还406.85万元，融资余额2.3亿元（12-13）</t>
+          <t>美联新材：融资净买入191.07万元，融资余额2.23亿元（12-19）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-14 09:10</t>
+          <t>12-20 08:46</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1259359354.html</t>
+          <t>/news,300586,1261730879.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入75.64万元，融资余额2.34亿元（12-12）</t>
+          <t>美联新材：子公司营创三征生产氰化钠目前只作为主营产品三聚氯氰原料 对外销售量较小</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-13 08:56</t>
+          <t>12-19 18:39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1258770287.html</t>
+          <t>/news,300586,1261575941.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>707</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还741.63万元，融资余额2.33亿元（12-09）</t>
+          <t>美联新材：子公司营创三征生产的氰化钠目前只作为主营产品三聚氯氰的原料 对外销售量较小</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-12 09:03</t>
+          <t>12-19 18:28</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1258216220.html</t>
+          <t>/news,300586,1261574800.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>2090</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,39 +563,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3787.59万元，居塑料制品板块第三</t>
+          <t>美联新材：子公司生产的次氯酸钠销量略有提升 价格也有所上调</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-19 13:03</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1258090552.html</t>
+          <t>/news,300586,1261407374.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
+          <t>美联新材：子公司营创三征生产84消毒液的核心原材料——次氯酸钠 近期其销量略有提升 价格也有所上调</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-09 09:12</t>
+          <t>12-19 13:02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1257408265.html</t>
+          <t>/news,300586,1261407794.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
+          <t>美联新材：融资净偿还793.58万元，融资余额2.21亿元（12-16）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-19 08:58</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1256765892.html</t>
+          <t>/news,300586,1261208490.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
+          <t>美联新材本周融资净偿还397.3万元，居塑料制品板块第七</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-18 15:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1256102025.html</t>
+          <t>/news,300586,1261090610.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>6668</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
+          <t>美联新材：熔喷布供不应求 近日价格有所上调</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-06 16:09</t>
+          <t>12-17 13:03</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1255873326.html</t>
+          <t>/news,300586,1260998081.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2633</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
+          <t>美联新材：熔喷布供不应求 近日价格有所上调</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-06 15:42</t>
+          <t>12-17 12:18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1255867277.html</t>
+          <t>/news,300586,1260992906.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>920</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>美联新材：子公司签订锂电池隔膜销售合同</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-06 15:30</t>
+          <t>12-16 17:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1255867127.html</t>
+          <t>/news,300586,1260840323.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材：接受华鑫证券等机构调研</t>
+          <t>美联新材：子公司签订1200万元锂电池隔膜销售合同</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-06 15:16</t>
+          <t>12-16 16:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1255858079.html</t>
+          <t>/news,300586,1260815971.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>1281</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
+          <t>美联新材：控股子公司签订锂电池隔膜销售合同</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-06 10:22</t>
+          <t>12-16 15:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1255583288.html</t>
+          <t>/news,300586,1260813550.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
+          <t>美联新材：融资净买入258.17万元，融资余额2.29亿元（12-15）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-06 08:53</t>
+          <t>12-16 09:09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1255457956.html</t>
+          <t>/news,300586,1260490424.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
+          <t>美联新材：随着疫情管控的放开 公司认为2023年色母粒的市场需求将明显增长</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,61 +893,61 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-15 14:23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1254803334.html</t>
+          <t>/news,300586,1260209452.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
+          <t>【调研快报】美联新材接待三峡资本等多家机构调研</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-15 14:18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1254651310.html</t>
+          <t>/news,300586,1260239770.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1141</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
+          <t>美联新材：接受三峡资本等机构调研</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-02 08:52</t>
+          <t>12-15 12:09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1253921265.html</t>
+          <t>/news,300586,1260124771.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4005</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
+          <t>美联新材：融资净偿还324.25万元，融资余额2.27亿元（12-14）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-15 08:55</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1253726421.html</t>
+          <t>/news,300586,1259943283.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：公司没有生产NC膜</t>
+          <t>美联新材：融资净偿还406.85万元，融资余额2.3亿元（12-13）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-14 09:10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1253726136.html</t>
+          <t>/news,300586,1259359354.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1005</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
+          <t>美联新材：融资净买入75.64万元，融资余额2.34亿元（12-12）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-01 14:47</t>
+          <t>12-13 08:56</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1253730277.html</t>
+          <t>/news,300586,1258770287.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
+          <t>美联新材：融资净偿还741.63万元，融资余额2.33亿元（12-09）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-01 11:35</t>
+          <t>12-12 09:03</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1253537964.html</t>
+          <t>/news,300586,1258216220.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材本周融资净买入3787.59万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-01 11:13</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1253515038.html</t>
+          <t>/news,300586,1258090552.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3930</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-01 11:10</t>
+          <t>12-09 09:12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1253513278.html</t>
+          <t>/news,300586,1257408265.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
+          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-01 11:09</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1253510125.html</t>
+          <t>/news,300586,1256765892.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
+          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-01 10:12</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1253425119.html</t>
+          <t>/news,300586,1256102025.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>3448</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
+          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-06 16:09</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1253309933.html</t>
+          <t>/news,300586,1255873326.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>2719</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
+          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-30 23:04</t>
+          <t>12-06 15:42</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1253555550.html</t>
+          <t>/news,300586,1255867277.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5300</t>
+          <t>817</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
+          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-30 20:38</t>
+          <t>12-06 15:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1253219296.html</t>
+          <t>/news,300586,1255867127.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>1639</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材：接受上海松熙私募等机构调研</t>
+          <t>美联新材：接受华鑫证券等机构调研</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-30 19:03</t>
+          <t>12-06 15:16</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1253189430.html</t>
+          <t>/news,300586,1255858079.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-30 15:23</t>
+          <t>12-06 10:22</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1253116699.html</t>
+          <t>/news,300586,1255583288.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
+          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-30 13:33</t>
+          <t>12-06 08:53</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1253018745.html</t>
+          <t>/news,300586,1255457956.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
+          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,51 +1437,51 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-30 13:27</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1253013307.html</t>
+          <t>/news,300586,1254803334.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-30 12:09</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1252978101.html</t>
+          <t>/news,300586,1254651310.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
+          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-30 08:53</t>
+          <t>12-02 08:52</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1252787247.html</t>
+          <t>/news,300586,1253921265.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
+          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1252221686.html</t>
+          <t>/news,300586,1253726421.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>1189</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
+          <t>美联新材：公司没有生产NC膜</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-28 08:53</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1251735594.html</t>
+          <t>/news,300586,1253726136.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2062</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,61 +1597,61 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-27 15:40</t>
+          <t>12-01 14:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1251597864.html</t>
+          <t>/news,300586,1253730277.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
+          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>12-01 11:35</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1251591044.html</t>
+          <t>/news,300586,1253537964.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>1351</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,29 +1661,29 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>11-26 10:44</t>
+          <t>12-01 11:13</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1251447060.html</t>
+          <t>/news,300586,1253515038.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2335</t>
+          <t>3943</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11-26 10:27</t>
+          <t>12-01 11:10</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1251445904.html</t>
+          <t>/news,300586,1253513278.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
+          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>11-25 13:37</t>
+          <t>12-01 11:09</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1251183386.html</t>
+          <t>/news,300586,1253510125.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2111</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
+          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11-25 12:26</t>
+          <t>12-01 10:12</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1251144560.html</t>
+          <t>/news,300586,1253425119.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
+          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1250951061.html</t>
+          <t>/news,300586,1253309933.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
+          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-24 08:58</t>
+          <t>11-30 23:04</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1250431083.html</t>
+          <t>/news,300586,1253555550.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>5325</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>11-30 20:38</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1253219296.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2461</t>
+          <t>1816</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：接受上海松熙私募等机构调研</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>11-30 19:03</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1253189430.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>746</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>11-30 15:23</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1253116699.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2247</t>
+          <t>587</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>11-30 13:33</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1253018745.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,61 +1981,61 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>11-30 13:27</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1253013307.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-30 12:09</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1252978101.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-30 08:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1252787247.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1548</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1252221686.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2127</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,51 +2109,51 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-28 08:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1251735594.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>2071</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-27 15:40</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1251597864.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1251591044.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9429</t>
+          <t>2552</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-26 10:44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1251447060.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>2346</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-26 10:27</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1251445904.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-25 13:37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1251183386.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1297</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-25 12:26</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1251144560.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1250951061.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4235</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>2127</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,51 +2461,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>2312</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3521.15万元，居塑料制品板块第三</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-20 15:09</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1248770579.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还1793.65万元，融资余额1.4亿元（11-17）</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,61 +2525,61 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-18 08:57</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1248164422.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>3824</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>美联新材：公司股东张朝益减持公司股份359.06万股</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-17 18:08</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1248045103.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5692.44万元（11-16）</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-17 08:51</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1247677209.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1773</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>华安证券给予美联新材买入评级：强禀赋拥抱产业合作 布局钠电打造新增长极</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,83 +2621,83 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-17 07:08</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1247662037.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>2144</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-17 07:03</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1247661489.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4455</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>美联新材：拟出资2.55亿元与七彩化学设立辽宁美彩新材料有限公司</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-16 18:19</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1247550672.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>注意！美联新材将于12月2日召开股东大会</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-16 18:10</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1247543908.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>9446</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计1542.48万元（11-15）</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-16 08:49</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1247183647.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2117</t>
+          <t>2131</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>龙虎榜 | 美联新材今日涨停 上榜营业部席位全天成交2.03亿元</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-15 17:23</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1247060390.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>多主力现身龙虎榜，美联新材涨停（11-15）</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-15 16:25</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1247046255.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>7673</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>美联新材(300586)龙虎榜数据(11-15)</t>
+          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-15 16:24</t>
+          <t>11-21 19:38</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1247046016.html</t>
+          <t>/news,300586,1249234023.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材放量涨停 两机构买入5117万元</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>一句话龙虎榜</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-15 16:23</t>
+          <t>11-21 19:25</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1247045715.html</t>
+          <t>/news,300586,1249232094.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计870.23万元（11-14）</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-15 08:53</t>
+          <t>11-21 18:45</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1246699020.html</t>
+          <t>/news,300586,1249222604.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入162.3万元，融资余额1.05亿元（11-11）</t>
+          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,51 +2941,51 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-14 08:52</t>
+          <t>11-21 18:35</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1246196948.html</t>
+          <t>/news,300586,1249220545.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>4243</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入334.85万元，居塑料制品板块第十五</t>
+          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-13 15:11</t>
+          <t>11-21 18:28</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1246100975.html</t>
+          <t>/news,300586,1249217442.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加132户，户均持股27.75万元</t>
+          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-11 14:03</t>
+          <t>11-21 08:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1245742176.html</t>
+          <t>/news,300586,1248873710.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300586.xlsx
+++ b/news_ann/news/tmp/300586.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入191.07万元，融资余额2.23亿元（12-19）</t>
+          <t>美联新材：融资净偿还996.69万元，融资余额2.13亿元（12-22）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12-20 08:46</t>
+          <t>12-23 09:02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300586,1261730879.html</t>
+          <t>/news,300586,1263202889.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>582</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>美联新材：子公司营创三征生产氰化钠目前只作为主营产品三聚氯氰原料 对外销售量较小</t>
+          <t>美联新材：黄伟汕质押750万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12-19 18:39</t>
+          <t>12-22 16:33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300586,1261575941.html</t>
+          <t>/news,300586,1263024921.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>美联新材：子公司营创三征生产的氰化钠目前只作为主营产品三聚氯氰的原料 对外销售量较小</t>
+          <t>美联新材：融资净偿还384.44万元，融资余额2.23亿元（12-21）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,29 +541,29 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12-19 18:28</t>
+          <t>12-22 08:41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300586,1261574800.html</t>
+          <t>/news,300586,1262677400.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2090</t>
+          <t>2719</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>美联新材：子公司生产的次氯酸钠销量略有提升 价格也有所上调</t>
+          <t>美联新材：公司子公司安徽美芯目前已有4条生产线建成投产 年产能可达3亿㎡</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12-19 13:03</t>
+          <t>12-21 18:25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300586,1261407374.html</t>
+          <t>/news,300586,1262546773.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>646</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>美联新材：子公司营创三征生产84消毒液的核心原材料——次氯酸钠 近期其销量略有提升 价格也有所上调</t>
+          <t>美联新材：控股子公司获得政府补助约615.24万元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12-19 13:02</t>
+          <t>12-21 15:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300586,1261407794.html</t>
+          <t>/news,300586,1262506077.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还793.58万元，融资余额2.21亿元（12-16）</t>
+          <t>美联新材：融资净买入399.41万元，融资余额2.27亿元（12-20）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12-19 08:58</t>
+          <t>12-21 09:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300586,1261208490.html</t>
+          <t>/news,300586,1262207081.html</t>
         </is>
       </c>
     </row>
@@ -659,39 +659,39 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美联新材本周融资净偿还397.3万元，居塑料制品板块第七</t>
+          <t>美联新材：融资净买入191.07万元，融资余额2.23亿元（12-19）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12-18 15:30</t>
+          <t>12-20 08:46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300586,1261090610.html</t>
+          <t>/news,300586,1261730879.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6668</t>
+          <t>1722</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美联新材：熔喷布供不应求 近日价格有所上调</t>
+          <t>美联新材：子公司营创三征生产氰化钠目前只作为主营产品三聚氯氰原料 对外销售量较小</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12-17 13:03</t>
+          <t>12-19 18:39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300586,1260998081.html</t>
+          <t>/news,300586,1261575941.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>947</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>美联新材：熔喷布供不应求 近日价格有所上调</t>
+          <t>美联新材：子公司营创三征生产的氰化钠目前只作为主营产品三聚氯氰的原料 对外销售量较小</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12-17 12:18</t>
+          <t>12-19 18:28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300586,1260992906.html</t>
+          <t>/news,300586,1261574800.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>920</t>
+          <t>2245</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>美联新材：子公司签订锂电池隔膜销售合同</t>
+          <t>美联新材：子公司生产的次氯酸钠销量略有提升 价格也有所上调</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12-16 17:46</t>
+          <t>12-19 13:03</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300586,1260840323.html</t>
+          <t>/news,300586,1261407374.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>1589</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>美联新材：子公司签订1200万元锂电池隔膜销售合同</t>
+          <t>美联新材：子公司营创三征生产84消毒液的核心原材料——次氯酸钠 近期其销量略有提升 价格也有所上调</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12-16 16:00</t>
+          <t>12-19 13:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300586,1260815971.html</t>
+          <t>/news,300586,1261407794.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>美联新材：控股子公司签订锂电池隔膜销售合同</t>
+          <t>美联新材：融资净偿还793.58万元，融资余额2.21亿元（12-16）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12-16 15:49</t>
+          <t>12-19 08:58</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300586,1260813550.html</t>
+          <t>/news,300586,1261208490.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入258.17万元，融资余额2.29亿元（12-15）</t>
+          <t>美联新材本周融资净偿还397.3万元，居塑料制品板块第七</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12-16 09:09</t>
+          <t>12-18 15:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300586,1260490424.html</t>
+          <t>/news,300586,1261090610.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>6963</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>美联新材：随着疫情管控的放开 公司认为2023年色母粒的市场需求将明显增长</t>
+          <t>美联新材：熔喷布供不应求 近日价格有所上调</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12-15 14:23</t>
+          <t>12-17 13:03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300586,1260209452.html</t>
+          <t>/news,300586,1260998081.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待三峡资本等多家机构调研</t>
+          <t>美联新材：熔喷布供不应求 近日价格有所上调</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12-15 14:18</t>
+          <t>12-17 12:18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300586,1260239770.html</t>
+          <t>/news,300586,1260992906.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>961</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>美联新材：接受三峡资本等机构调研</t>
+          <t>美联新材：子公司签订锂电池隔膜销售合同</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12-15 12:09</t>
+          <t>12-16 17:46</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300586,1260124771.html</t>
+          <t>/news,300586,1260840323.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1747</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还324.25万元，融资余额2.27亿元（12-14）</t>
+          <t>美联新材：子公司签订1200万元锂电池隔膜销售合同</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12-15 08:55</t>
+          <t>12-16 16:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300586,1259943283.html</t>
+          <t>/news,300586,1260815971.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>1297</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还406.85万元，融资余额2.3亿元（12-13）</t>
+          <t>美联新材：控股子公司签订锂电池隔膜销售合同</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12-14 09:10</t>
+          <t>12-16 15:49</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300586,1259359354.html</t>
+          <t>/news,300586,1260813550.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入75.64万元，融资余额2.34亿元（12-12）</t>
+          <t>美联新材：融资净买入258.17万元，融资余额2.29亿元（12-15）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12-13 08:56</t>
+          <t>12-16 09:09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300586,1258770287.html</t>
+          <t>/news,300586,1260490424.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>2343</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还741.63万元，融资余额2.33亿元（12-09）</t>
+          <t>美联新材：随着疫情管控的放开 公司认为2023年色母粒的市场需求将明显增长</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,19 +1085,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>12-12 09:03</t>
+          <t>12-15 14:23</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300586,1258216220.html</t>
+          <t>/news,300586,1260209452.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>618</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,39 +1107,39 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入3787.59万元，居塑料制品板块第三</t>
+          <t>【调研快报】美联新材接待三峡资本等多家机构调研</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12-11 15:09</t>
+          <t>12-15 14:18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300586,1258090552.html</t>
+          <t>/news,300586,1260239770.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
+          <t>美联新材：接受三峡资本等机构调研</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12-09 09:12</t>
+          <t>12-15 12:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300586,1257408265.html</t>
+          <t>/news,300586,1260124771.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
+          <t>美联新材：融资净偿还324.25万元，融资余额2.27亿元（12-14）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,19 +1181,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12-08 08:48</t>
+          <t>12-15 08:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300586,1256765892.html</t>
+          <t>/news,300586,1259943283.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
+          <t>美联新材：融资净偿还406.85万元，融资余额2.3亿元（12-13）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>12-07 09:02</t>
+          <t>12-14 09:10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300586,1256102025.html</t>
+          <t>/news,300586,1259359354.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3448</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
+          <t>美联新材：融资净买入75.64万元，融资余额2.34亿元（12-12）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>12-06 16:09</t>
+          <t>12-13 08:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300586,1255873326.html</t>
+          <t>/news,300586,1258770287.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2719</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
+          <t>美联新材：融资净偿还741.63万元，融资余额2.33亿元（12-09）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,61 +1277,61 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12-06 15:42</t>
+          <t>12-12 09:03</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300586,1255867277.html</t>
+          <t>/news,300586,1258216220.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>817</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
+          <t>美联新材本周融资净买入3787.59万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>12-06 15:30</t>
+          <t>12-11 15:09</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300586,1255867127.html</t>
+          <t>/news,300586,1258090552.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1639</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>美联新材：接受华鑫证券等机构调研</t>
+          <t>美联新材：连续8日融资净买入累计7563.64万元（12-08）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>12-06 15:16</t>
+          <t>12-09 09:12</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300586,1255858079.html</t>
+          <t>/news,300586,1257408265.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
+          <t>美联新材：连续7日融资净买入累计6743.22万元（12-07）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12-06 10:22</t>
+          <t>12-08 08:48</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300586,1255583288.html</t>
+          <t>/news,300586,1256765892.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
+          <t>美联新材：连续6日融资净买入累计5843.12万元（12-06）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12-06 08:53</t>
+          <t>12-07 09:02</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300586,1255457956.html</t>
+          <t>/news,300586,1256102025.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
+          <t>美联新材：预计2023年公司隔膜产能将达到满产状态</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,61 +1437,61 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>12-05 08:54</t>
+          <t>12-06 16:09</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300586,1254803334.html</t>
+          <t>/news,300586,1255873326.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>2737</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
+          <t>美联新材：公司普鲁士蓝（白）项目一期预计于2023年底建成投产 2023年力争实现产销量3000吨</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>12-04 15:09</t>
+          <t>12-06 15:42</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300586,1254651310.html</t>
+          <t>/news,300586,1255867277.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
+          <t>【调研快报】美联新材接待华鑫证券有限责任公司等多家机构调研</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>12-02 08:52</t>
+          <t>12-06 15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300586,1253921265.html</t>
+          <t>/news,300586,1255867127.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4075</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
+          <t>美联新材：接受华鑫证券等机构调研</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-06 15:16</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300586,1253726421.html</t>
+          <t>/news,300586,1255858079.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1189</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>美联新材：公司没有生产NC膜</t>
+          <t>美联新材： 公司下半年熔喷布产能未有变化</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>12-01 15:59</t>
+          <t>12-06 10:22</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300586,1253726136.html</t>
+          <t>/news,300586,1255583288.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
+          <t>美联新材：连续5日融资净买入累计5093.3万元（12-05）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12-01 14:47</t>
+          <t>12-06 08:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300586,1253730277.html</t>
+          <t>/news,300586,1255457956.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
+          <t>美联新材：连续4日融资净买入累计3776.05万元（12-02）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12-01 11:35</t>
+          <t>12-05 08:54</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300586,1253537964.html</t>
+          <t>/news,300586,1254803334.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1351</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材本周融资净买入1653.79万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>12-01 11:13</t>
+          <t>12-04 15:09</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300586,1253515038.html</t>
+          <t>/news,300586,1254651310.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3943</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
+          <t>美联新材：连续3日融资净买入累计2062.84万元（12-01）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>12-01 11:10</t>
+          <t>12-02 08:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300586,1253513278.html</t>
+          <t>/news,300586,1253921265.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>4089</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
+          <t>美联新材：公司母粒可应用于抗原检测试剂盒中的塑料配件及医用包装领域</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>12-01 11:09</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300586,1253510125.html</t>
+          <t>/news,300586,1253726421.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
+          <t>美联新材：公司没有生产NC膜</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12-01 10:12</t>
+          <t>12-01 15:59</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300586,1253425119.html</t>
+          <t>/news,300586,1253726136.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
+          <t>【调研快报】美联新材接待光大证券股份有限公司等多家机构调研</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12-01 08:47</t>
+          <t>12-01 14:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300586,1253309933.html</t>
+          <t>/news,300586,1253730277.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
+          <t>美联新材：接受光大证券股份有限公司等机构调研</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11-30 23:04</t>
+          <t>12-01 11:35</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300586,1253555550.html</t>
+          <t>/news,300586,1253537964.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>1360</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>11-30 20:38</t>
+          <t>12-01 11:13</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300586,1253219296.html</t>
+          <t>/news,300586,1253515038.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1816</t>
+          <t>3949</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>美联新材：接受上海松熙私募等机构调研</t>
+          <t>美联新材：层状氧化物正极材料技术路线最快将于2023年一季度实现产业化</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11-30 19:03</t>
+          <t>12-01 11:10</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300586,1253189430.html</t>
+          <t>/news,300586,1253513278.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
+          <t>美联新材：普鲁士蓝项目现预计今年出货量约3000万m2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11-30 15:23</t>
+          <t>12-01 11:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300586,1253116699.html</t>
+          <t>/news,300586,1253510125.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
+          <t>美联新材股东户数增加18.49%，户均持股30.08万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>11-30 13:33</t>
+          <t>12-01 10:12</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300586,1253018745.html</t>
+          <t>/news,300586,1253425119.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
+          <t>美联新材：融资净买入66.01万元，融资余额1.79亿元（11-30）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>11-30 13:27</t>
+          <t>12-01 08:47</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300586,1253013307.html</t>
+          <t>/news,300586,1253309933.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
+          <t>【调研快报】美联新材接待上海松熙私募基金管理合伙企业(有限合伙)等多家机构调研</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11-30 12:09</t>
+          <t>11-30 23:04</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300586,1252978101.html</t>
+          <t>/news,300586,1253555550.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>5337</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
+          <t>美联新材：随着钠电池产业化放量 隔膜需求量将呈大幅增长态势</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11-30 08:53</t>
+          <t>11-30 20:38</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300586,1252787247.html</t>
+          <t>/news,300586,1253219296.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>1821</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
+          <t>美联新材：接受上海松熙私募等机构调研</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11-29 08:44</t>
+          <t>11-30 19:03</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300586,1252221686.html</t>
+          <t>/news,300586,1253189430.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
+          <t>美联新材：预计未来3至5年三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11-28 08:53</t>
+          <t>11-30 15:23</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300586,1251735594.html</t>
+          <t>/news,300586,1253116699.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2071</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：预计未来3-5年三聚氯氰需求将趋于平稳</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,61 +2141,61 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>11-27 15:40</t>
+          <t>11-30 13:33</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300586,1251597864.html</t>
+          <t>/news,300586,1253018745.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
+          <t>美联新材：预计未来3-5年三聚氯氰的需求将趋于平稳</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11-27 15:09</t>
+          <t>11-30 13:27</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300586,1251591044.html</t>
+          <t>/news,300586,1253013307.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2552</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：目前精细化工行业发展态势良好 预计未来3～5年期间 三聚氯氰的需求将趋于平稳状态</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>11-26 10:44</t>
+          <t>11-30 12:09</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300586,1251447060.html</t>
+          <t>/news,300586,1252978101.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2346</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
+          <t>美联新材：融资净买入1358.61万元，融资余额1.79亿元（11-29）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11-26 10:27</t>
+          <t>11-30 08:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300586,1251445904.html</t>
+          <t>/news,300586,1252787247.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
+          <t>美联新材：融资净偿还409.05万元，融资余额1.65亿元（11-28）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11-25 13:37</t>
+          <t>11-29 08:44</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300586,1251183386.html</t>
+          <t>/news,300586,1252221686.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
+          <t>美联新材：融资净买入151.65万元，融资余额1.69亿元（11-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11-25 12:26</t>
+          <t>11-28 08:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300586,1251144560.html</t>
+          <t>/news,300586,1251735594.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>2078</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11-25 08:49</t>
+          <t>11-27 15:40</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300586,1250951061.html</t>
+          <t>/news,300586,1251597864.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,39 +2355,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
+          <t>美联新材本周融资净买入1852.23万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11-24 08:58</t>
+          <t>11-27 15:09</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300586,1250431083.html</t>
+          <t>/news,300586,1251591044.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>2555</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11-23 08:48</t>
+          <t>11-26 10:44</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300586,1249883910.html</t>
+          <t>/news,300586,1251447060.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>2351</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
+          <t>美联新材：加快推进钠离子电池材料项目建设工作</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11-22 17:20</t>
+          <t>11-26 10:27</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300586,1249717761.html</t>
+          <t>/news,300586,1251445904.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2127</t>
+          <t>1529</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
+          <t>美联新材：子公司安徽美芯目前已有3亿㎡隔膜产能投产 2023年计划陆续新增4亿㎡产能</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11-22 15:52</t>
+          <t>11-25 13:37</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300586,1249694019.html</t>
+          <t>/news,300586,1251183386.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2312</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
+          <t>美联新材：公司子公司安徽美芯目前已有3亿㎡隔膜产能投产</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>11-22 14:40</t>
+          <t>11-25 12:26</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300586,1249656287.html</t>
+          <t>/news,300586,1251144560.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
+          <t>美联新材：融资净买入3160.56万元，融资余额1.68亿元（11-24）</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>11-22 13:18</t>
+          <t>11-25 08:49</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300586,1249568381.html</t>
+          <t>/news,300586,1250951061.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
+          <t>美联新材：融资净偿还240.04万元，融资余额1.36亿元（11-23）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11-22 13:10</t>
+          <t>11-24 08:58</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300586,1249559798.html</t>
+          <t>/news,300586,1250431083.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
+          <t>美联新材：融资净偿还2681.76万元，融资余额1.38亿元（11-22）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>11-22 12:26</t>
+          <t>11-23 08:48</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300586,1249541443.html</t>
+          <t>/news,300586,1249883910.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>2494</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
+          <t>美联新材豪掷百亿元投建新产线 提升色母粒及锂电隔膜产能</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11-22 09:52</t>
+          <t>11-22 17:20</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300586,1249420107.html</t>
+          <t>/news,300586,1249717761.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2144</t>
+          <t>2137</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
+          <t>美联新材：股东张朝益于2022年10月13日~2022年11月22日减持公司股份359.06万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,51 +2653,51 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11-22 09:42</t>
+          <t>11-22 15:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300586,1249400062.html</t>
+          <t>/news,300586,1249694019.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>2332</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
+          <t>产值达160亿！美联新材斥百亿解原材料之“苦” 还透露了钠电池正极材料路线倾向？</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>美联新材资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11-22 09:29</t>
+          <t>11-22 14:40</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300586,1249372973.html</t>
+          <t>/news,300586,1249656287.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
+          <t>美联新材股东户数下降7.12%，户均持股35.68万元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>11-22 08:52</t>
+          <t>11-22 13:18</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300586,1249356914.html</t>
+          <t>/news,300586,1249568381.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>9446</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
+          <t>光大证券维持美联新材增持评级 预计2022年净利润同比增长411.99%</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>11-22 07:36</t>
+          <t>11-22 13:10</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300586,1249347590.html</t>
+          <t>/news,300586,1249559798.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2131</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
+          <t>公司问答丨美联新材：拟投100亿建设新项目 后续根据具体情况决定未来运行</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11-21 20:27</t>
+          <t>11-22 12:26</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300586,1249249435.html</t>
+          <t>/news,300586,1249541443.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材：公司在钠离子电池正极材料三个技术路线中均有布局</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11-21 20:16</t>
+          <t>11-22 09:52</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300586,1249245775.html</t>
+          <t>/news,300586,1249420107.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>2151</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>美联新材拟投资百亿元布局新能源及高分子材料项目</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,61 +2845,61 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11-21 19:38</t>
+          <t>11-22 09:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300586,1249234023.html</t>
+          <t>/news,300586,1249400062.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>759</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>华安证券维持美联新材买入评级 预计2022年净利润同比增长487.84%</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>美联新材资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11-21 19:25</t>
+          <t>11-22 09:29</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300586,1249232094.html</t>
+          <t>/news,300586,1249372973.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1286</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材：融资净买入1613.47万元，融资余额1.65亿元（11-21）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11-21 18:45</t>
+          <t>11-22 08:52</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300586,1249222604.html</t>
+          <t>/news,300586,1249356914.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>9450</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>美联新材：拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
+          <t>豪掷100亿！这家公司计划分三期建设新项目</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>11-21 18:35</t>
+          <t>11-22 07:36</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300586,1249220545.html</t>
+          <t>/news,300586,1249347590.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>4243</t>
+          <t>2136</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>美联新材：拟投资100亿元建设“年产230万吨新能源及高分子材料产业化建设项目”</t>
+          <t>美联新材规划百亿元投资 提升色母粒、锂电隔膜产能</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11-21 18:28</t>
+          <t>11-21 20:27</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300586,1249217442.html</t>
+          <t>/news,300586,1249249435.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>美联新材：融资净买入870.41万元，融资余额1.49亿元（11-18）</t>
+          <t>美联新材拟100亿元投建年产230万吨新能源及高分子材料产业化建设项目</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11-21 08:55</t>
+          <t>11-21 20:16</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300586,1248873710.html</t>
+          <t>/news,300586,1249245775.html</t>
         </is>
       </c>
     </row>
